--- a/models/calculation engines/economic_overlay/outputs/sedimentary_bauxite-tonnages_per_depth_range.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/sedimentary_bauxite-tonnages_per_depth_range.xlsx
@@ -488,34 +488,34 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>295693.9853247521</v>
+        <v>276161.5177940228</v>
       </c>
       <c r="B2" t="n">
-        <v>295693.9852537857</v>
+        <v>276161.5177277443</v>
       </c>
       <c r="C2" t="n">
-        <v>295693.9853247521</v>
+        <v>276161.5177940228</v>
       </c>
       <c r="D2" t="n">
-        <v>380177.9813041714</v>
+        <v>355064.8087532778</v>
       </c>
       <c r="E2" t="n">
-        <v>380177.9805945058</v>
+        <v>355064.8080904901</v>
       </c>
       <c r="F2" t="n">
-        <v>380177.9813041716</v>
+        <v>355064.8087532779</v>
       </c>
       <c r="G2" t="n">
-        <v>380177.9813041716</v>
+        <v>355064.8087532778</v>
       </c>
       <c r="H2" t="n">
-        <v>380177.981304171</v>
+        <v>355064.8087532773</v>
       </c>
       <c r="I2" t="n">
-        <v>50690.39717604607</v>
+        <v>134400.9722675617</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100452.6902035748</v>
       </c>
     </row>
     <row r="3">
@@ -3720,34 +3720,34 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>9539.468750763157</v>
+        <v>7631.575000610525</v>
       </c>
       <c r="B103" t="n">
-        <v>9539.468748473686</v>
+        <v>7631.57499877895</v>
       </c>
       <c r="C103" t="n">
-        <v>9539.468750763157</v>
+        <v>7631.575000610524</v>
       </c>
       <c r="D103" t="n">
-        <v>12265.03125654135</v>
+        <v>9812.025005233079</v>
       </c>
       <c r="E103" t="n">
-        <v>12265.03123364662</v>
+        <v>9812.024986917297</v>
       </c>
       <c r="F103" t="n">
-        <v>12265.03125654135</v>
+        <v>9812.025005233085</v>
       </c>
       <c r="G103" t="n">
-        <v>12265.03125654135</v>
+        <v>9812.025005233074</v>
       </c>
       <c r="H103" t="n">
-        <v>12265.03125654133</v>
+        <v>9812.025005233074</v>
       </c>
       <c r="I103" t="n">
-        <v>1635.33749018799</v>
+        <v>9812.024986917302</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>9812.025005233085</v>
       </c>
     </row>
     <row r="104">
@@ -3784,66 +3784,66 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>401.7562500321403</v>
+        <v>321.4050000257123</v>
       </c>
       <c r="B105" t="n">
-        <v>401.7562499357189</v>
+        <v>321.4049999485752</v>
       </c>
       <c r="C105" t="n">
-        <v>401.7562500321403</v>
+        <v>321.4050000257122</v>
       </c>
       <c r="D105" t="n">
-        <v>516.5437502754897</v>
+        <v>413.2350002203918</v>
       </c>
       <c r="E105" t="n">
-        <v>516.5437493112747</v>
+        <v>413.2349994490198</v>
       </c>
       <c r="F105" t="n">
-        <v>516.54375027549</v>
+        <v>413.2350002203921</v>
       </c>
       <c r="G105" t="n">
-        <v>516.54375027549</v>
+        <v>413.2350002203917</v>
       </c>
       <c r="H105" t="n">
-        <v>516.5437502754892</v>
+        <v>413.2350002203917</v>
       </c>
       <c r="I105" t="n">
-        <v>68.87249958676561</v>
+        <v>413.23499944902</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>413.2350002203921</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>632.4937500505996</v>
+        <v>505.9950000404797</v>
       </c>
       <c r="B106" t="n">
-        <v>632.4937498988013</v>
+        <v>505.994999919041</v>
       </c>
       <c r="C106" t="n">
-        <v>632.4937500505996</v>
+        <v>505.9950000404796</v>
       </c>
       <c r="D106" t="n">
-        <v>813.2062504337101</v>
+        <v>650.5650003469681</v>
       </c>
       <c r="E106" t="n">
-        <v>813.2062489157249</v>
+        <v>650.5649991325801</v>
       </c>
       <c r="F106" t="n">
-        <v>813.2062504337105</v>
+        <v>650.5650003469684</v>
       </c>
       <c r="G106" t="n">
-        <v>813.2062504337105</v>
+        <v>650.5650003469678</v>
       </c>
       <c r="H106" t="n">
-        <v>813.2062504337091</v>
+        <v>650.5650003469678</v>
       </c>
       <c r="I106" t="n">
-        <v>108.427499349436</v>
+        <v>650.5649991325804</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>650.5650003469684</v>
       </c>
     </row>
     <row r="107">
@@ -3880,34 +3880,34 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>535.9375000428749</v>
+        <v>428.7500000343</v>
       </c>
       <c r="B108" t="n">
-        <v>535.9374999142501</v>
+        <v>428.7499999314001</v>
       </c>
       <c r="C108" t="n">
-        <v>535.9375000428749</v>
+        <v>428.7500000342999</v>
       </c>
       <c r="D108" t="n">
-        <v>689.0625003674999</v>
+        <v>551.250000294</v>
       </c>
       <c r="E108" t="n">
-        <v>689.0624990812498</v>
+        <v>551.2499992649999</v>
       </c>
       <c r="F108" t="n">
-        <v>689.0625003675002</v>
+        <v>551.2500002940003</v>
       </c>
       <c r="G108" t="n">
-        <v>689.0625003675002</v>
+        <v>551.2500002939997</v>
       </c>
       <c r="H108" t="n">
-        <v>689.0625003674991</v>
+        <v>551.2500002939997</v>
       </c>
       <c r="I108" t="n">
-        <v>91.87499944875086</v>
+        <v>551.2499992650002</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>551.2500002940003</v>
       </c>
     </row>
     <row r="109">
@@ -3944,162 +3944,162 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>255.1893750204152</v>
+        <v>204.1515000163321</v>
       </c>
       <c r="B110" t="n">
-        <v>255.1893749591698</v>
+        <v>204.1514999673358</v>
       </c>
       <c r="C110" t="n">
-        <v>255.1893750204152</v>
+        <v>204.1515000163321</v>
       </c>
       <c r="D110" t="n">
-        <v>328.100625174987</v>
+        <v>262.4805001399896</v>
       </c>
       <c r="E110" t="n">
-        <v>328.1006245625325</v>
+        <v>262.480499650026</v>
       </c>
       <c r="F110" t="n">
-        <v>328.1006251749871</v>
+        <v>262.4805001399898</v>
       </c>
       <c r="G110" t="n">
-        <v>328.1006251749871</v>
+        <v>262.4805001399895</v>
       </c>
       <c r="H110" t="n">
-        <v>328.1006251749866</v>
+        <v>262.4805001399895</v>
       </c>
       <c r="I110" t="n">
-        <v>43.74674973751991</v>
+        <v>262.4804996500261</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
+        <v>262.4805001399898</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>386.2687500309015</v>
+        <v>309.0150000247212</v>
       </c>
       <c r="B111" t="n">
-        <v>386.2687499381971</v>
+        <v>309.0149999505577</v>
       </c>
       <c r="C111" t="n">
-        <v>386.2687500309015</v>
+        <v>309.0150000247211</v>
       </c>
       <c r="D111" t="n">
-        <v>496.6312502648699</v>
+        <v>397.305000211896</v>
       </c>
       <c r="E111" t="n">
-        <v>496.6312493378248</v>
+        <v>397.3049994702599</v>
       </c>
       <c r="F111" t="n">
-        <v>496.6312502648701</v>
+        <v>397.3050002118962</v>
       </c>
       <c r="G111" t="n">
-        <v>496.6312502648701</v>
+        <v>397.3050002118958</v>
       </c>
       <c r="H111" t="n">
-        <v>496.6312502648693</v>
+        <v>397.3050002118958</v>
       </c>
       <c r="I111" t="n">
-        <v>66.21749960269561</v>
+        <v>397.3049994702601</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>397.3050002118962</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1517.395833454725</v>
+        <v>1213.91666676378</v>
       </c>
       <c r="B112" t="n">
-        <v>1517.39583309055</v>
+        <v>1213.916666472441</v>
       </c>
       <c r="C112" t="n">
-        <v>1517.395833454725</v>
+        <v>1213.91666676378</v>
       </c>
       <c r="D112" t="n">
-        <v>1950.9375010405</v>
+        <v>1560.7500008324</v>
       </c>
       <c r="E112" t="n">
-        <v>1950.93749739875</v>
+        <v>1560.749997919</v>
       </c>
       <c r="F112" t="n">
-        <v>1950.937501040501</v>
+        <v>1560.750000832401</v>
       </c>
       <c r="G112" t="n">
-        <v>1950.937501040501</v>
+        <v>1560.750000832399</v>
       </c>
       <c r="H112" t="n">
-        <v>1950.937501040498</v>
+        <v>1560.750000832399</v>
       </c>
       <c r="I112" t="n">
-        <v>260.1249984392525</v>
+        <v>1560.749997919001</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>1560.750000832401</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>10554.66854251104</v>
+        <v>8443.73483400883</v>
       </c>
       <c r="B113" t="n">
-        <v>10554.66853997792</v>
+        <v>8443.734831982336</v>
       </c>
       <c r="C113" t="n">
-        <v>10554.66854251104</v>
+        <v>8443.734834008828</v>
       </c>
       <c r="D113" t="n">
-        <v>13570.28813223748</v>
+        <v>10856.23050578999</v>
       </c>
       <c r="E113" t="n">
-        <v>13570.28810690628</v>
+        <v>10856.23048552502</v>
       </c>
       <c r="F113" t="n">
-        <v>13570.28813223749</v>
+        <v>10856.23050578999</v>
       </c>
       <c r="G113" t="n">
-        <v>13570.28813223749</v>
+        <v>10856.23050578998</v>
       </c>
       <c r="H113" t="n">
-        <v>13570.28813223747</v>
+        <v>10856.23050578998</v>
       </c>
       <c r="I113" t="n">
-        <v>1809.371739143786</v>
+        <v>10856.23048552503</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>10856.23050578999</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>315.2187500252174</v>
+        <v>252.175000020174</v>
       </c>
       <c r="B114" t="n">
-        <v>315.2187499495651</v>
+        <v>252.1749999596521</v>
       </c>
       <c r="C114" t="n">
-        <v>315.2187500252174</v>
+        <v>252.1750000201739</v>
       </c>
       <c r="D114" t="n">
-        <v>405.2812502161499</v>
+        <v>324.22500017292</v>
       </c>
       <c r="E114" t="n">
-        <v>405.2812494596249</v>
+        <v>324.2249995676999</v>
       </c>
       <c r="F114" t="n">
-        <v>405.2812502161501</v>
+        <v>324.2250001729201</v>
       </c>
       <c r="G114" t="n">
-        <v>405.2812502161501</v>
+        <v>324.2250001729198</v>
       </c>
       <c r="H114" t="n">
-        <v>405.2812502161494</v>
+        <v>324.2250001729198</v>
       </c>
       <c r="I114" t="n">
-        <v>54.0374996757755</v>
+        <v>324.2249995677001</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>324.2250001729201</v>
       </c>
     </row>
     <row r="115">
@@ -4136,130 +4136,130 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>213.354166683735</v>
+        <v>170.683333346988</v>
       </c>
       <c r="B116" t="n">
-        <v>213.35416663253</v>
+        <v>170.683333306024</v>
       </c>
       <c r="C116" t="n">
-        <v>213.354166683735</v>
+        <v>170.683333346988</v>
       </c>
       <c r="D116" t="n">
-        <v>274.3125001463</v>
+        <v>219.45000011704</v>
       </c>
       <c r="E116" t="n">
-        <v>274.3124996342499</v>
+        <v>219.4499997073999</v>
       </c>
       <c r="F116" t="n">
-        <v>274.3125001463001</v>
+        <v>219.4500001170401</v>
       </c>
       <c r="G116" t="n">
-        <v>274.3125001463001</v>
+        <v>219.4500001170398</v>
       </c>
       <c r="H116" t="n">
-        <v>274.3125001462996</v>
+        <v>219.4500001170398</v>
       </c>
       <c r="I116" t="n">
-        <v>36.57499978055034</v>
+        <v>219.4499997074001</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>219.4500001170401</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>3499.485937779958</v>
+        <v>2799.588750223967</v>
       </c>
       <c r="B117" t="n">
-        <v>3499.485936940082</v>
+        <v>2799.588749552066</v>
       </c>
       <c r="C117" t="n">
-        <v>3499.485937779958</v>
+        <v>2799.588750223966</v>
       </c>
       <c r="D117" t="n">
-        <v>4499.339064899646</v>
+        <v>3599.471251919717</v>
       </c>
       <c r="E117" t="n">
-        <v>4499.339056500879</v>
+        <v>3599.471245200704</v>
       </c>
       <c r="F117" t="n">
-        <v>4499.339064899648</v>
+        <v>3599.471251919719</v>
       </c>
       <c r="G117" t="n">
-        <v>4499.339064899648</v>
+        <v>3599.471251919716</v>
       </c>
       <c r="H117" t="n">
-        <v>4499.339064899641</v>
+        <v>3599.471251919716</v>
       </c>
       <c r="I117" t="n">
-        <v>599.9118714005342</v>
+        <v>3599.471245200706</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>3599.471251919719</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>3770.236458634952</v>
+        <v>3016.189166907961</v>
       </c>
       <c r="B118" t="n">
-        <v>3770.236457730096</v>
+        <v>3016.189166184077</v>
       </c>
       <c r="C118" t="n">
-        <v>3770.236458634952</v>
+        <v>3016.189166907961</v>
       </c>
       <c r="D118" t="n">
-        <v>4847.446877585304</v>
+        <v>3877.957502068244</v>
       </c>
       <c r="E118" t="n">
-        <v>4847.446868536736</v>
+        <v>3877.957494829389</v>
       </c>
       <c r="F118" t="n">
-        <v>4847.446877585306</v>
+        <v>3877.957502068246</v>
       </c>
       <c r="G118" t="n">
-        <v>4847.446877585306</v>
+        <v>3877.957502068241</v>
       </c>
       <c r="H118" t="n">
-        <v>4847.446877585297</v>
+        <v>3877.957502068241</v>
       </c>
       <c r="I118" t="n">
-        <v>646.3262461220485</v>
+        <v>3877.957494829391</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
+        <v>3877.957502068246</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2635.237500210819</v>
+        <v>2108.190000168655</v>
       </c>
       <c r="B119" t="n">
-        <v>2635.237499578363</v>
+        <v>2108.18999966269</v>
       </c>
       <c r="C119" t="n">
-        <v>2635.237500210819</v>
+        <v>2108.190000168654</v>
       </c>
       <c r="D119" t="n">
-        <v>3388.162501807019</v>
+        <v>2710.530001445616</v>
       </c>
       <c r="E119" t="n">
-        <v>3388.162495482449</v>
+        <v>2710.529996385959</v>
       </c>
       <c r="F119" t="n">
-        <v>3388.162501807021</v>
+        <v>2710.530001445617</v>
       </c>
       <c r="G119" t="n">
-        <v>3388.162501807021</v>
+        <v>2710.530001445614</v>
       </c>
       <c r="H119" t="n">
-        <v>3388.162501807015</v>
+        <v>2710.530001445614</v>
       </c>
       <c r="I119" t="n">
-        <v>451.7549972894741</v>
+        <v>2710.529996385961</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
+        <v>2710.530001445617</v>
       </c>
     </row>
     <row r="120">
@@ -4296,34 +4296,34 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>4259.645833674103</v>
+        <v>3407.716666939282</v>
       </c>
       <c r="B121" t="n">
-        <v>4259.645832651789</v>
+        <v>3407.716666121431</v>
       </c>
       <c r="C121" t="n">
-        <v>4259.645833674103</v>
+        <v>3407.716666939282</v>
       </c>
       <c r="D121" t="n">
-        <v>5476.687502920897</v>
+        <v>4381.350002336718</v>
       </c>
       <c r="E121" t="n">
-        <v>5476.687492697746</v>
+        <v>4381.349994158198</v>
       </c>
       <c r="F121" t="n">
-        <v>5476.6875029209</v>
+        <v>4381.350002336721</v>
       </c>
       <c r="G121" t="n">
-        <v>5476.6875029209</v>
+        <v>4381.350002336716</v>
       </c>
       <c r="H121" t="n">
-        <v>5476.68750292089</v>
+        <v>4381.350002336716</v>
       </c>
       <c r="I121" t="n">
-        <v>730.2249956186565</v>
+        <v>4381.349994158199</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>4381.350002336721</v>
       </c>
     </row>
     <row r="122">
@@ -4360,482 +4360,482 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>3260.133333594144</v>
+        <v>2608.106666875315</v>
       </c>
       <c r="B123" t="n">
-        <v>3260.133332811713</v>
+        <v>2608.10666624937</v>
       </c>
       <c r="C123" t="n">
-        <v>3260.133333594144</v>
+        <v>2608.106666875315</v>
       </c>
       <c r="D123" t="n">
-        <v>4191.600002235519</v>
+        <v>3353.280001788416</v>
       </c>
       <c r="E123" t="n">
-        <v>4191.599994411199</v>
+        <v>3353.279995528959</v>
       </c>
       <c r="F123" t="n">
-        <v>4191.600002235521</v>
+        <v>3353.280001788417</v>
       </c>
       <c r="G123" t="n">
-        <v>4191.600002235521</v>
+        <v>3353.280001788414</v>
       </c>
       <c r="H123" t="n">
-        <v>4191.600002235514</v>
+        <v>3353.280001788414</v>
       </c>
       <c r="I123" t="n">
-        <v>558.8799966467252</v>
+        <v>3353.279995528961</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
+        <v>3353.280001788417</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2432.810625194625</v>
+        <v>1946.2485001557</v>
       </c>
       <c r="B124" t="n">
-        <v>2432.810624610751</v>
+        <v>1946.248499688601</v>
       </c>
       <c r="C124" t="n">
-        <v>2432.810625194625</v>
+        <v>1946.2485001557</v>
       </c>
       <c r="D124" t="n">
-        <v>3127.899376668213</v>
+        <v>2502.319501334571</v>
       </c>
       <c r="E124" t="n">
-        <v>3127.899370829467</v>
+        <v>2502.319496663574</v>
       </c>
       <c r="F124" t="n">
-        <v>3127.899376668214</v>
+        <v>2502.319501334572</v>
       </c>
       <c r="G124" t="n">
-        <v>3127.899376668214</v>
+        <v>2502.319501334569</v>
       </c>
       <c r="H124" t="n">
-        <v>3127.899376668209</v>
+        <v>2502.319501334569</v>
       </c>
       <c r="I124" t="n">
-        <v>417.0532474976844</v>
+        <v>2502.319496663575</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>2502.319501334572</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>8118.647906899492</v>
+        <v>6494.918325519594</v>
       </c>
       <c r="B125" t="n">
-        <v>8118.647904951019</v>
+        <v>6494.918323960816</v>
       </c>
       <c r="C125" t="n">
-        <v>8118.647906899492</v>
+        <v>6494.918325519593</v>
       </c>
       <c r="D125" t="n">
-        <v>10438.26159931707</v>
+        <v>8350.60927945366</v>
       </c>
       <c r="E125" t="n">
-        <v>10438.26157983232</v>
+        <v>8350.609263865854</v>
       </c>
       <c r="F125" t="n">
-        <v>10438.26159931708</v>
+        <v>8350.609279453663</v>
       </c>
       <c r="G125" t="n">
-        <v>10438.26159931708</v>
+        <v>8350.609279453654</v>
       </c>
       <c r="H125" t="n">
-        <v>10438.26159931706</v>
+        <v>8350.609279453654</v>
       </c>
       <c r="I125" t="n">
-        <v>1391.768204149404</v>
+        <v>8350.609263865859</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>8350.609279453663</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2609.957291875463</v>
+        <v>2087.965833500371</v>
       </c>
       <c r="B126" t="n">
-        <v>2609.957291249074</v>
+        <v>2087.965832999259</v>
       </c>
       <c r="C126" t="n">
-        <v>2609.957291875463</v>
+        <v>2087.96583350037</v>
       </c>
       <c r="D126" t="n">
-        <v>3355.659376789685</v>
+        <v>2684.527501431748</v>
       </c>
       <c r="E126" t="n">
-        <v>3355.659370525786</v>
+        <v>2684.52749642063</v>
       </c>
       <c r="F126" t="n">
-        <v>3355.659376789686</v>
+        <v>2684.527501431749</v>
       </c>
       <c r="G126" t="n">
-        <v>3355.659376789686</v>
+        <v>2684.527501431747</v>
       </c>
       <c r="H126" t="n">
-        <v>3355.65937678968</v>
+        <v>2684.527501431747</v>
       </c>
       <c r="I126" t="n">
-        <v>447.4212473154766</v>
+        <v>2684.527496420631</v>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
+        <v>2684.527501431749</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>271.7895833550764</v>
+        <v>217.4316666840612</v>
       </c>
       <c r="B127" t="n">
-        <v>271.789583289847</v>
+        <v>217.4316666318776</v>
       </c>
       <c r="C127" t="n">
-        <v>271.7895833550764</v>
+        <v>217.4316666840611</v>
       </c>
       <c r="D127" t="n">
-        <v>349.4437501863699</v>
+        <v>279.555000149096</v>
       </c>
       <c r="E127" t="n">
-        <v>349.4437495340749</v>
+        <v>279.5549996272599</v>
       </c>
       <c r="F127" t="n">
-        <v>349.4437501863701</v>
+        <v>279.5550001490961</v>
       </c>
       <c r="G127" t="n">
-        <v>349.4437501863701</v>
+        <v>279.5550001490958</v>
       </c>
       <c r="H127" t="n">
-        <v>349.4437501863695</v>
+        <v>279.5550001490958</v>
       </c>
       <c r="I127" t="n">
-        <v>46.59249972044543</v>
+        <v>279.5549996272601</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
+        <v>279.5550001490961</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>334.395833360085</v>
+        <v>267.516666688068</v>
       </c>
       <c r="B128" t="n">
-        <v>334.39583327983</v>
+        <v>267.5166666238641</v>
       </c>
       <c r="C128" t="n">
-        <v>334.395833360085</v>
+        <v>267.5166666880679</v>
       </c>
       <c r="D128" t="n">
-        <v>429.9375002292999</v>
+        <v>343.95000018344</v>
       </c>
       <c r="E128" t="n">
-        <v>429.9374994267499</v>
+        <v>343.9499995413999</v>
       </c>
       <c r="F128" t="n">
-        <v>429.9375002293001</v>
+        <v>343.9500001834401</v>
       </c>
       <c r="G128" t="n">
-        <v>429.9375002293001</v>
+        <v>343.9500001834398</v>
       </c>
       <c r="H128" t="n">
-        <v>429.9375002292994</v>
+        <v>343.9500001834398</v>
       </c>
       <c r="I128" t="n">
-        <v>57.32499965605053</v>
+        <v>343.9499995414001</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>343.9500001834401</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>4337.870833680364</v>
+        <v>3470.296666944291</v>
       </c>
       <c r="B129" t="n">
-        <v>4337.870832639276</v>
+        <v>3470.296666111421</v>
       </c>
       <c r="C129" t="n">
-        <v>4337.870833680364</v>
+        <v>3470.296666944291</v>
       </c>
       <c r="D129" t="n">
-        <v>5577.26250297454</v>
+        <v>4461.810002379633</v>
       </c>
       <c r="E129" t="n">
-        <v>5577.26249256365</v>
+        <v>4461.80999405092</v>
       </c>
       <c r="F129" t="n">
-        <v>5577.262502974543</v>
+        <v>4461.810002379635</v>
       </c>
       <c r="G129" t="n">
-        <v>5577.262502974543</v>
+        <v>4461.810002379631</v>
       </c>
       <c r="H129" t="n">
-        <v>5577.262502974534</v>
+        <v>4461.810002379631</v>
       </c>
       <c r="I129" t="n">
-        <v>743.6349955381971</v>
+        <v>4461.809994050923</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
+        <v>4461.810002379635</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>601.1322917147571</v>
+        <v>480.9058333718057</v>
       </c>
       <c r="B130" t="n">
-        <v>601.1322915704854</v>
+        <v>480.9058332563885</v>
       </c>
       <c r="C130" t="n">
-        <v>601.1322917147571</v>
+        <v>480.9058333718056</v>
       </c>
       <c r="D130" t="n">
-        <v>772.8843754122048</v>
+        <v>618.3075003297639</v>
       </c>
       <c r="E130" t="n">
-        <v>772.8843739694871</v>
+        <v>618.3074991755898</v>
       </c>
       <c r="F130" t="n">
-        <v>772.884375412205</v>
+        <v>618.3075003297641</v>
       </c>
       <c r="G130" t="n">
-        <v>772.884375412205</v>
+        <v>618.3075003297636</v>
       </c>
       <c r="H130" t="n">
-        <v>772.8843754122038</v>
+        <v>618.3075003297636</v>
       </c>
       <c r="I130" t="n">
-        <v>103.0512493816934</v>
+        <v>618.3074991755901</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>618.3075003297641</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>413.673750033094</v>
+        <v>330.9390000264752</v>
       </c>
       <c r="B131" t="n">
-        <v>413.6737499338124</v>
+        <v>330.93899994705</v>
       </c>
       <c r="C131" t="n">
-        <v>413.673750033094</v>
+        <v>330.9390000264752</v>
       </c>
       <c r="D131" t="n">
-        <v>531.8662502836621</v>
+        <v>425.4930002269297</v>
       </c>
       <c r="E131" t="n">
-        <v>531.8662492908451</v>
+        <v>425.4929994326761</v>
       </c>
       <c r="F131" t="n">
-        <v>531.8662502836623</v>
+        <v>425.49300022693</v>
       </c>
       <c r="G131" t="n">
-        <v>531.8662502836623</v>
+        <v>425.4930002269295</v>
       </c>
       <c r="H131" t="n">
-        <v>531.8662502836614</v>
+        <v>425.4930002269295</v>
       </c>
       <c r="I131" t="n">
-        <v>70.91549957450768</v>
+        <v>425.4929994326763</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
+        <v>425.49300022693</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>690.5208333885749</v>
+        <v>552.41666671086</v>
       </c>
       <c r="B132" t="n">
-        <v>690.5208332228501</v>
+        <v>552.4166665782801</v>
       </c>
       <c r="C132" t="n">
-        <v>690.5208333885749</v>
+        <v>552.4166667108599</v>
       </c>
       <c r="D132" t="n">
-        <v>887.8125004734999</v>
+        <v>710.2500003788</v>
       </c>
       <c r="E132" t="n">
-        <v>887.8124988162498</v>
+        <v>710.2499990529999</v>
       </c>
       <c r="F132" t="n">
-        <v>887.8125004735002</v>
+        <v>710.2500003788003</v>
       </c>
       <c r="G132" t="n">
-        <v>887.8125004735002</v>
+        <v>710.2500003787997</v>
       </c>
       <c r="H132" t="n">
-        <v>887.8125004734987</v>
+        <v>710.2500003787997</v>
       </c>
       <c r="I132" t="n">
-        <v>118.3749992897511</v>
+        <v>710.2499990530002</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>710.2500003788003</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>15778.10026167891</v>
+        <v>12622.48020934313</v>
       </c>
       <c r="B133" t="n">
-        <v>15778.10025789217</v>
+        <v>12622.48020631374</v>
       </c>
       <c r="C133" t="n">
-        <v>15778.10026167891</v>
+        <v>12622.48020934312</v>
       </c>
       <c r="D133" t="n">
-        <v>20286.12891706926</v>
+        <v>16228.90313365541</v>
       </c>
       <c r="E133" t="n">
-        <v>20286.12887920182</v>
+        <v>16228.90310336145</v>
       </c>
       <c r="F133" t="n">
-        <v>20286.12891706927</v>
+        <v>16228.90313365542</v>
       </c>
       <c r="G133" t="n">
-        <v>20286.12891706927</v>
+        <v>16228.9031336554</v>
       </c>
       <c r="H133" t="n">
-        <v>20286.12891706924</v>
+        <v>16228.9031336554</v>
       </c>
       <c r="I133" t="n">
-        <v>2704.817171271121</v>
+        <v>16228.90310336146</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
+        <v>16228.90313365542</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>9253.329167406928</v>
+        <v>7402.663333925543</v>
       </c>
       <c r="B134" t="n">
-        <v>9253.329165186131</v>
+        <v>7402.663332148906</v>
       </c>
       <c r="C134" t="n">
-        <v>9253.329167406928</v>
+        <v>7402.663333925541</v>
       </c>
       <c r="D134" t="n">
-        <v>11897.13750634513</v>
+        <v>9517.710005076107</v>
       </c>
       <c r="E134" t="n">
-        <v>11897.13748413714</v>
+        <v>9517.709987309714</v>
       </c>
       <c r="F134" t="n">
-        <v>11897.13750634514</v>
+        <v>9517.710005076113</v>
       </c>
       <c r="G134" t="n">
-        <v>11897.13750634514</v>
+        <v>9517.710005076104</v>
       </c>
       <c r="H134" t="n">
-        <v>11897.13750634512</v>
+        <v>9517.710005076104</v>
       </c>
       <c r="I134" t="n">
-        <v>1586.284990482304</v>
+        <v>9517.70998730972</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>9517.710005076113</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1117.200000089376</v>
+        <v>893.7600000715008</v>
       </c>
       <c r="B135" t="n">
-        <v>1117.199999821248</v>
+        <v>893.7599998569987</v>
       </c>
       <c r="C135" t="n">
-        <v>1117.200000089376</v>
+        <v>893.7600000715007</v>
       </c>
       <c r="D135" t="n">
-        <v>1436.40000076608</v>
+        <v>1149.120000612864</v>
       </c>
       <c r="E135" t="n">
-        <v>1436.3999980848</v>
+        <v>1149.11999846784</v>
       </c>
       <c r="F135" t="n">
-        <v>1436.40000076608</v>
+        <v>1149.120000612865</v>
       </c>
       <c r="G135" t="n">
-        <v>1436.40000076608</v>
+        <v>1149.120000612863</v>
       </c>
       <c r="H135" t="n">
-        <v>1436.400000766078</v>
+        <v>1149.120000612863</v>
       </c>
       <c r="I135" t="n">
-        <v>191.5199988508818</v>
+        <v>1149.119998467841</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
+        <v>1149.120000612865</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2902.528125232202</v>
+        <v>2322.022500185762</v>
       </c>
       <c r="B136" t="n">
-        <v>2902.528124535596</v>
+        <v>2322.022499628477</v>
       </c>
       <c r="C136" t="n">
-        <v>2902.528125232202</v>
+        <v>2322.022500185761</v>
       </c>
       <c r="D136" t="n">
-        <v>3731.821876990305</v>
+        <v>2985.457501592244</v>
       </c>
       <c r="E136" t="n">
-        <v>3731.821870024236</v>
+        <v>2985.45749601939</v>
       </c>
       <c r="F136" t="n">
-        <v>3731.821876990306</v>
+        <v>2985.457501592246</v>
       </c>
       <c r="G136" t="n">
-        <v>3731.821876990306</v>
+        <v>2985.457501592242</v>
       </c>
       <c r="H136" t="n">
-        <v>3731.8218769903</v>
+        <v>2985.457501592242</v>
       </c>
       <c r="I136" t="n">
-        <v>497.5762470145471</v>
+        <v>2985.457496019391</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
+        <v>2985.457501592246</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>6489.046667185789</v>
+        <v>5191.237333748631</v>
       </c>
       <c r="B137" t="n">
-        <v>6489.04666562842</v>
+        <v>5191.237332502737</v>
       </c>
       <c r="C137" t="n">
-        <v>6489.046667185789</v>
+        <v>5191.237333748631</v>
       </c>
       <c r="D137" t="n">
-        <v>8343.060004449631</v>
+        <v>6674.448003559705</v>
       </c>
       <c r="E137" t="n">
-        <v>8343.059988875917</v>
+        <v>6674.447991100735</v>
       </c>
       <c r="F137" t="n">
-        <v>8343.060004449633</v>
+        <v>6674.448003559709</v>
       </c>
       <c r="G137" t="n">
-        <v>8343.060004449633</v>
+        <v>6674.448003559702</v>
       </c>
       <c r="H137" t="n">
-        <v>8343.06000444962</v>
+        <v>6674.448003559702</v>
       </c>
       <c r="I137" t="n">
-        <v>1112.407993325562</v>
+        <v>6674.447991100738</v>
       </c>
       <c r="J137" t="n">
-        <v>0</v>
+        <v>6674.448003559709</v>
       </c>
     </row>
     <row r="138">
@@ -4872,34 +4872,34 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>534.8437500427874</v>
+        <v>427.87500003423</v>
       </c>
       <c r="B139" t="n">
-        <v>534.8437499144251</v>
+        <v>427.8749999315401</v>
       </c>
       <c r="C139" t="n">
-        <v>534.8437500427874</v>
+        <v>427.8750000342299</v>
       </c>
       <c r="D139" t="n">
-        <v>687.6562503667499</v>
+        <v>550.1250002934</v>
       </c>
       <c r="E139" t="n">
-        <v>687.6562490831247</v>
+        <v>550.1249992664999</v>
       </c>
       <c r="F139" t="n">
-        <v>687.6562503667502</v>
+        <v>550.1250002934003</v>
       </c>
       <c r="G139" t="n">
-        <v>687.6562503667502</v>
+        <v>550.1250002933997</v>
       </c>
       <c r="H139" t="n">
-        <v>687.6562503667491</v>
+        <v>550.1250002933997</v>
       </c>
       <c r="I139" t="n">
-        <v>91.68749944987584</v>
+        <v>550.1249992665001</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>550.1250002934003</v>
       </c>
     </row>
     <row r="140">

--- a/models/calculation engines/economic_overlay/outputs/sedimentary_bauxite-tonnages_per_depth_range.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/sedimentary_bauxite-tonnages_per_depth_range.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J163"/>
+  <dimension ref="A1:J176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,63 +488,63 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>276161.5177940228</v>
+        <v>277909.9693459606</v>
       </c>
       <c r="B2" t="n">
-        <v>276161.5177277443</v>
+        <v>277909.9692792624</v>
       </c>
       <c r="C2" t="n">
-        <v>276161.5177940228</v>
+        <v>277909.9693459606</v>
       </c>
       <c r="D2" t="n">
-        <v>355064.8087532778</v>
+        <v>357312.817892503</v>
       </c>
       <c r="E2" t="n">
-        <v>355064.8080904901</v>
+        <v>357312.817225519</v>
       </c>
       <c r="F2" t="n">
-        <v>355064.8087532779</v>
+        <v>357312.8178925032</v>
       </c>
       <c r="G2" t="n">
-        <v>355064.8087532778</v>
+        <v>357312.8178925031</v>
       </c>
       <c r="H2" t="n">
-        <v>355064.8087532773</v>
+        <v>357312.8178925025</v>
       </c>
       <c r="I2" t="n">
-        <v>134400.9722675617</v>
+        <v>148610.358873226</v>
       </c>
       <c r="J2" t="n">
-        <v>100452.6902035748</v>
+        <v>116502.2887478489</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>403.8854166989775</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>403.885416602045</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>403.8854166989775</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>519.2812502769499</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>519.2812493076248</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>519.2812502769501</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>519.2812502769501</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>519.2812502769492</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>69.23749958457563</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -552,63 +552,63 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98.145833341185</v>
+        <v>7631.575000610525</v>
       </c>
       <c r="B4" t="n">
-        <v>98.14583331763002</v>
+        <v>7631.57499877895</v>
       </c>
       <c r="C4" t="n">
-        <v>98.145833341185</v>
+        <v>7631.575000610524</v>
       </c>
       <c r="D4" t="n">
-        <v>126.1875000673</v>
+        <v>9812.025005233079</v>
       </c>
       <c r="E4" t="n">
-        <v>126.18749983175</v>
+        <v>9812.024986917297</v>
       </c>
       <c r="F4" t="n">
-        <v>126.1875000673</v>
+        <v>9812.025005233085</v>
       </c>
       <c r="G4" t="n">
-        <v>126.1875000673</v>
+        <v>9812.025005233074</v>
       </c>
       <c r="H4" t="n">
-        <v>126.1875000672998</v>
+        <v>9812.025005233074</v>
       </c>
       <c r="I4" t="n">
-        <v>16.82499989905016</v>
+        <v>9812.024986917302</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>9812.025005233085</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6893.250000551459</v>
+        <v>1740.146041805878</v>
       </c>
       <c r="B5" t="n">
-        <v>6893.249998897081</v>
+        <v>1740.146041388243</v>
       </c>
       <c r="C5" t="n">
-        <v>6893.250000551459</v>
+        <v>1740.146041805878</v>
       </c>
       <c r="D5" t="n">
-        <v>8862.750004726799</v>
+        <v>2237.330626193243</v>
       </c>
       <c r="E5" t="n">
-        <v>8862.749988182997</v>
+        <v>2237.330622016892</v>
       </c>
       <c r="F5" t="n">
-        <v>8862.750004726802</v>
+        <v>2237.330626193243</v>
       </c>
       <c r="G5" t="n">
-        <v>8862.750004726802</v>
+        <v>2237.330626193243</v>
       </c>
       <c r="H5" t="n">
-        <v>8862.750004726788</v>
+        <v>2237.33062619324</v>
       </c>
       <c r="I5" t="n">
-        <v>1181.699992909811</v>
+        <v>298.3107482101382</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -616,31 +616,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>692.70833338875</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>692.7083332225002</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>692.70833338875</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>890.625000475</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>890.6249988124998</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>890.6250004750003</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>890.6250004750003</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>890.6250004749988</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>118.7499992875011</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -648,31 +648,31 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2951.37500023611</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>2951.37499952778</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2951.37500023611</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>3794.625002023799</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3794.624994940499</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>3794.625002023801</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3794.625002023801</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3794.625002023795</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>505.9499969643047</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -680,31 +680,31 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>24.8645833353225</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>24.864583329355</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>24.8645833353225</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>31.96875001705</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>31.96874995737499</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>31.96875001705001</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>31.96875001705001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>31.96875001704996</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>4.262499974425039</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -712,31 +712,31 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>70.6562500056525</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>70.65624998869501</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>70.6562500056525</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>90.84375004844998</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>90.84374987887497</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>90.84375004845002</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>90.84375004845002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>90.84375004844986</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>12.11249992732511</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -744,31 +744,31 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>351.0937500280875</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>351.0937499438251</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>351.0937500280875</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>451.40625024075</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>451.4062493981249</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>451.4062502407501</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>451.4062502407501</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>451.4062502407494</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>60.18749963887556</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -808,31 +808,31 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3199.984375255998</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>3199.984374488003</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>3199.984375255998</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>4114.265627194274</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>4114.265619514311</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>4114.265627194276</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>4114.265627194276</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>4114.265627194269</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>548.5687467085926</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -840,31 +840,31 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>5718.192187957455</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>5718.19218658509</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>5718.192187957455</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>7351.961387849616</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>7351.961374125954</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>7351.961387849619</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>7351.961387849619</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>7351.961387849607</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>980.2615119755828</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -872,31 +872,31 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>13505.77083441379</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>13505.77083117241</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>13505.77083441379</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>17364.5625092611</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>17364.56247684724</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>17364.5625092611</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>17364.5625092611</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>17364.56250926108</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2315.274986108371</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -968,31 +968,31 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8881.250000710501</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>8881.249998579004</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>8881.250000710501</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>11418.75000609</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>11418.749984775</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>11418.75000609001</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>11418.75000609001</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>11418.75000608999</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1522.499990865014</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1000,34 +1000,34 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>78.51666667294799</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>78.51666665410401</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>78.51666667294798</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>100.95000005384</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>100.9499998654</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>100.95000005384</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>100.9500000538399</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>100.9500000538399</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>100.9499998654</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>100.95000005384</v>
       </c>
     </row>
     <row r="19">
@@ -1064,31 +1064,31 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>401.7562500321404</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>401.756249935719</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>401.7562500321404</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>516.5437502754899</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>516.5437493112748</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>516.5437502754901</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>516.5437502754901</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>516.5437502754893</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>68.87249958676563</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1096,34 +1096,34 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1866.37500014931</v>
+        <v>505.9950000404796</v>
       </c>
       <c r="B21" t="n">
-        <v>1866.37499970138</v>
+        <v>505.994999919041</v>
       </c>
       <c r="C21" t="n">
-        <v>1866.37500014931</v>
+        <v>505.9950000404795</v>
       </c>
       <c r="D21" t="n">
-        <v>2399.6250012798</v>
+        <v>650.5650003469681</v>
       </c>
       <c r="E21" t="n">
-        <v>2399.6249968005</v>
+        <v>650.5649991325799</v>
       </c>
       <c r="F21" t="n">
-        <v>2399.625001279801</v>
+        <v>650.5650003469684</v>
       </c>
       <c r="G21" t="n">
-        <v>2399.625001279801</v>
+        <v>650.5650003469677</v>
       </c>
       <c r="H21" t="n">
-        <v>2399.625001279797</v>
+        <v>650.5650003469677</v>
       </c>
       <c r="I21" t="n">
-        <v>319.949998080303</v>
+        <v>650.5649991325803</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>650.5650003469684</v>
       </c>
     </row>
     <row r="22">
@@ -1160,31 +1160,31 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4081.583333659859</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>4081.58333268028</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4081.583333659859</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5247.750002798799</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>5247.749993002998</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>5247.750002798801</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5247.750002798801</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5247.750002798793</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>699.6999958018064</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1192,31 +1192,31 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>243.83333335284</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>243.83333329432</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>243.83333335284</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>313.5000001671999</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>313.4999995819999</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>313.5000001672</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>313.5000001672</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>313.5000001671995</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>41.79999974920038</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1224,31 +1224,31 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>12230.84295501892</v>
+        <v>451.2500000360999</v>
       </c>
       <c r="B25" t="n">
-        <v>12230.84295208352</v>
+        <v>451.2499999278</v>
       </c>
       <c r="C25" t="n">
-        <v>12230.84295501892</v>
+        <v>451.2500000360999</v>
       </c>
       <c r="D25" t="n">
-        <v>15725.36952072459</v>
+        <v>580.178571738</v>
       </c>
       <c r="E25" t="n">
-        <v>15725.36949137056</v>
+        <v>580.1785706549998</v>
       </c>
       <c r="F25" t="n">
-        <v>15725.3695207246</v>
+        <v>580.1785717380002</v>
       </c>
       <c r="G25" t="n">
-        <v>15725.3695207246</v>
+        <v>580.1785717380002</v>
       </c>
       <c r="H25" t="n">
-        <v>15725.36952072457</v>
+        <v>580.1785717379992</v>
       </c>
       <c r="I25" t="n">
-        <v>2096.715922398088</v>
+        <v>77.35714239300071</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1288,31 +1288,31 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9970.625000797645</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>9970.624998404697</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>9970.625000797645</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>12819.37500683699</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>12819.37498290749</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>12819.375006837</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>12819.375006837</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>12819.37500683698</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1709.249989744515</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1320,31 +1320,31 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>892.9292969464344</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>892.9292967321315</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>892.9292969464344</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1148.051953737294</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1148.051951594264</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1148.051953737295</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1148.051953737295</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1148.051953737293</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>153.0735928315599</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1352,31 +1352,31 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2208.098958509981</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>2208.098957980038</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>2208.098958509981</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2838.984376514124</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2838.984371214686</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2838.984376514125</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2838.984376514125</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2838.98437651412</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>378.531247728816</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1384,63 +1384,63 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>42.29166667005</v>
+        <v>468.0083333707739</v>
       </c>
       <c r="B30" t="n">
-        <v>42.29166665990001</v>
+        <v>468.0083332584521</v>
       </c>
       <c r="C30" t="n">
-        <v>42.29166667005</v>
+        <v>468.0083333707739</v>
       </c>
       <c r="D30" t="n">
-        <v>54.37500002899999</v>
+        <v>601.7250003209199</v>
       </c>
       <c r="E30" t="n">
-        <v>54.37499992749999</v>
+        <v>601.7249991976998</v>
       </c>
       <c r="F30" t="n">
-        <v>54.37500002900001</v>
+        <v>601.7250003209202</v>
       </c>
       <c r="G30" t="n">
-        <v>54.37500002900001</v>
+        <v>601.7250003209197</v>
       </c>
       <c r="H30" t="n">
-        <v>54.37500002899993</v>
+        <v>601.7250003209197</v>
       </c>
       <c r="I30" t="n">
-        <v>7.249999956500067</v>
+        <v>601.7249991977002</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>601.7250003209202</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>78.7500000063</v>
+        <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>78.74999998740002</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>78.7500000063</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>101.250000054</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>101.249999865</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>101.250000054</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>101.250000054</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>101.2500000539999</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>13.49999991900012</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1448,31 +1448,31 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>266.437500021315</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>266.43749995737</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>266.437500021315</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>342.5625001826999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>342.5624995432499</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>342.5625001827</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>342.5625001827</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>342.5625001826995</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>45.67499972595042</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1480,31 +1480,31 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>72.9166666725</v>
+        <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>72.91666665500001</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>72.9166666725</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>93.75000004999998</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>93.74999987499997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>93.75000005000003</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>93.75000005000003</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>93.75000004999987</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>12.49999992500012</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1512,31 +1512,31 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>535.050000042804</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>535.0499999143921</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>535.050000042804</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>687.9214289383199</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>687.9214276541998</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>687.9214289383201</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>687.9214289383201</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>687.921428938319</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>91.72285659252084</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1544,31 +1544,31 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>11436.38437591491</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>11436.38437317018</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>11436.38437591491</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>14703.92277569923</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>14703.92274825191</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>14703.92277569924</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>14703.92277569924</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>14703.92277569921</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1960.523023951166</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1576,31 +1576,31 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>451.2500000360999</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>451.2499999278</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>451.2500000360999</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>580.178571738</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>580.1785706549998</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>580.1785717380002</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>580.1785717380002</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>580.1785717379992</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>77.35714239300071</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -1608,31 +1608,31 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>535.050000042804</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>535.0499999143921</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>535.050000042804</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>687.9214289383199</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>687.9214276541998</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>687.9214289383201</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>687.9214289383201</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>687.921428938319</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>91.72285659252084</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -1640,31 +1640,31 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>932.200000074576</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>932.1999998508483</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>932.200000074576</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1198.54285778208</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1198.5428555448</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1198.542857782081</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1198.542857782081</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1198.542857782078</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>159.8057133268815</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -1672,31 +1672,31 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3642.331250291386</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>3642.331249417227</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>3642.331250291386</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>4682.997323926169</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>4682.997315184573</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>4682.997323926171</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>4682.997323926171</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>4682.997323926164</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>624.3996391107507</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -1704,31 +1704,31 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>485.575000038846</v>
+        <v>17.4270833347275</v>
       </c>
       <c r="B40" t="n">
-        <v>485.5749999223081</v>
+        <v>17.427083330545</v>
       </c>
       <c r="C40" t="n">
-        <v>485.575000038846</v>
+        <v>17.4270833347275</v>
       </c>
       <c r="D40" t="n">
-        <v>624.31071461868</v>
+        <v>22.40625001194999</v>
       </c>
       <c r="E40" t="n">
-        <v>624.3107134532999</v>
+        <v>22.40624997012499</v>
       </c>
       <c r="F40" t="n">
-        <v>624.3107146186802</v>
+        <v>22.40625001195</v>
       </c>
       <c r="G40" t="n">
-        <v>624.3107146186802</v>
+        <v>22.40625001195</v>
       </c>
       <c r="H40" t="n">
-        <v>624.3107146186792</v>
+        <v>22.40625001194997</v>
       </c>
       <c r="I40" t="n">
-        <v>83.24142807198078</v>
+        <v>2.987499982075027</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -1736,31 +1736,31 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1372.425000109794</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>1372.424999780412</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1372.425000109794</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1764.54642951252</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1764.546426218699</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1764.54642951252</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1764.54642951252</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1764.546429512518</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>235.2728557312222</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -1768,95 +1768,95 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>24.75000000198</v>
+        <v>204.1515000163321</v>
       </c>
       <c r="B42" t="n">
-        <v>24.74999999604</v>
+        <v>204.1514999673358</v>
       </c>
       <c r="C42" t="n">
-        <v>24.75000000198</v>
+        <v>204.1515000163321</v>
       </c>
       <c r="D42" t="n">
-        <v>31.8214285884</v>
+        <v>262.4805001399895</v>
       </c>
       <c r="E42" t="n">
-        <v>31.82142852899999</v>
+        <v>262.4804996500259</v>
       </c>
       <c r="F42" t="n">
-        <v>31.82142858840001</v>
+        <v>262.4805001399897</v>
       </c>
       <c r="G42" t="n">
-        <v>31.82142858840001</v>
+        <v>262.4805001399894</v>
       </c>
       <c r="H42" t="n">
-        <v>31.82142858839995</v>
+        <v>262.4805001399894</v>
       </c>
       <c r="I42" t="n">
-        <v>4.242857117400039</v>
+        <v>262.480499650026</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>262.4805001399897</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>15578.27168874626</v>
+        <v>8.575000000685998</v>
       </c>
       <c r="B43" t="n">
-        <v>15578.27168500748</v>
+        <v>8.574999998628002</v>
       </c>
       <c r="C43" t="n">
-        <v>15578.27168874626</v>
+        <v>8.575000000685998</v>
       </c>
       <c r="D43" t="n">
-        <v>20029.20646603938</v>
+        <v>11.02500000588</v>
       </c>
       <c r="E43" t="n">
-        <v>20029.20642865153</v>
+        <v>11.0249999853</v>
       </c>
       <c r="F43" t="n">
-        <v>20029.20646603939</v>
+        <v>11.02500000588</v>
       </c>
       <c r="G43" t="n">
-        <v>20029.20646603939</v>
+        <v>11.02500000587999</v>
       </c>
       <c r="H43" t="n">
-        <v>20029.20646603936</v>
+        <v>11.02500000587999</v>
       </c>
       <c r="I43" t="n">
-        <v>2670.560844690945</v>
+        <v>11.0249999853</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>11.02500000588</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>386.2687500309014</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>386.268749938197</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>386.2687500309014</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>496.6312502648698</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>496.6312493378248</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>496.6312502648701</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>496.6312502648701</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>496.6312502648692</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>66.2174996026956</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -1864,63 +1864,63 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>362.7375000290189</v>
+        <v>745.7600000596608</v>
       </c>
       <c r="B45" t="n">
-        <v>362.737499941962</v>
+        <v>745.7599998806787</v>
       </c>
       <c r="C45" t="n">
-        <v>362.7375000290189</v>
+        <v>745.7600000596607</v>
       </c>
       <c r="D45" t="n">
-        <v>466.3767859630199</v>
+        <v>958.8342862256641</v>
       </c>
       <c r="E45" t="n">
-        <v>466.3767850924498</v>
+        <v>958.8342844358399</v>
       </c>
       <c r="F45" t="n">
-        <v>466.37678596302</v>
+        <v>958.8342862256645</v>
       </c>
       <c r="G45" t="n">
-        <v>466.37678596302</v>
+        <v>958.8342862256635</v>
       </c>
       <c r="H45" t="n">
-        <v>466.3767859630192</v>
+        <v>958.8342862256635</v>
       </c>
       <c r="I45" t="n">
-        <v>62.18357105547057</v>
+        <v>958.8342844358405</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>958.8342862256645</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6368.7500005095</v>
+        <v>203.525000016282</v>
       </c>
       <c r="B46" t="n">
-        <v>6368.749998981001</v>
+        <v>203.524999967436</v>
       </c>
       <c r="C46" t="n">
-        <v>6368.7500005095</v>
+        <v>203.525000016282</v>
       </c>
       <c r="D46" t="n">
-        <v>8188.392861509999</v>
+        <v>261.6750001395599</v>
       </c>
       <c r="E46" t="n">
-        <v>8188.392846224998</v>
+        <v>261.6749996510999</v>
       </c>
       <c r="F46" t="n">
-        <v>8188.392861510002</v>
+        <v>261.67500013956</v>
       </c>
       <c r="G46" t="n">
-        <v>8188.392861510002</v>
+        <v>261.67500013956</v>
       </c>
       <c r="H46" t="n">
-        <v>8188.392861509989</v>
+        <v>261.6750001395596</v>
       </c>
       <c r="I46" t="n">
-        <v>1091.78570773501</v>
+        <v>34.88999979066032</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -1928,31 +1928,31 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>88.30250000706421</v>
+        <v>1517.395833454725</v>
       </c>
       <c r="B47" t="n">
-        <v>88.30249998587163</v>
+        <v>1517.39583309055</v>
       </c>
       <c r="C47" t="n">
-        <v>88.30250000706421</v>
+        <v>1517.395833454725</v>
       </c>
       <c r="D47" t="n">
-        <v>113.531785774836</v>
+        <v>1950.937501040499</v>
       </c>
       <c r="E47" t="n">
-        <v>113.53178556291</v>
+        <v>1950.937497398749</v>
       </c>
       <c r="F47" t="n">
-        <v>113.5317857748361</v>
+        <v>1950.9375010405</v>
       </c>
       <c r="G47" t="n">
-        <v>113.5317857748361</v>
+        <v>1950.9375010405</v>
       </c>
       <c r="H47" t="n">
-        <v>113.5317857748359</v>
+        <v>1950.937501040497</v>
       </c>
       <c r="I47" t="n">
-        <v>15.13757133774614</v>
+        <v>260.1249984392524</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -1960,95 +1960,95 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4317.557375345403</v>
+        <v>8443.73483400883</v>
       </c>
       <c r="B48" t="n">
-        <v>4317.55737430919</v>
+        <v>8443.734831982336</v>
       </c>
       <c r="C48" t="n">
-        <v>4317.557375345403</v>
+        <v>8443.734834008828</v>
       </c>
       <c r="D48" t="n">
-        <v>5551.145199389179</v>
+        <v>10856.23050578999</v>
       </c>
       <c r="E48" t="n">
-        <v>5551.145189027041</v>
+        <v>10856.23048552502</v>
       </c>
       <c r="F48" t="n">
-        <v>5551.145199389181</v>
+        <v>10856.23050578999</v>
       </c>
       <c r="G48" t="n">
-        <v>5551.145199389181</v>
+        <v>10856.23050578998</v>
       </c>
       <c r="H48" t="n">
-        <v>5551.145199389172</v>
+        <v>10856.23050578998</v>
       </c>
       <c r="I48" t="n">
-        <v>740.1526884162332</v>
+        <v>10856.23048552503</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>10856.23050578999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7054.487500564359</v>
+        <v>285.8333333562</v>
       </c>
       <c r="B49" t="n">
-        <v>7054.487498871284</v>
+        <v>285.8333332876001</v>
       </c>
       <c r="C49" t="n">
-        <v>7054.487500564359</v>
+        <v>285.8333333561999</v>
       </c>
       <c r="D49" t="n">
-        <v>9070.055361980219</v>
+        <v>367.500000196</v>
       </c>
       <c r="E49" t="n">
-        <v>9070.055345049448</v>
+        <v>367.49999951</v>
       </c>
       <c r="F49" t="n">
-        <v>9070.055361980223</v>
+        <v>367.5000001960002</v>
       </c>
       <c r="G49" t="n">
-        <v>9070.055361980223</v>
+        <v>367.5000001959998</v>
       </c>
       <c r="H49" t="n">
-        <v>9070.055361980209</v>
+        <v>367.5000001959998</v>
       </c>
       <c r="I49" t="n">
-        <v>1209.340707029681</v>
+        <v>367.4999995100001</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>367.5000001960002</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>933.5062500746805</v>
+        <v>315.2187500252174</v>
       </c>
       <c r="B50" t="n">
-        <v>933.5062498506392</v>
+        <v>315.2187499495651</v>
       </c>
       <c r="C50" t="n">
-        <v>933.5062500746805</v>
+        <v>315.2187500252174</v>
       </c>
       <c r="D50" t="n">
-        <v>1200.22232206869</v>
+        <v>405.2812502161499</v>
       </c>
       <c r="E50" t="n">
-        <v>1200.222319828275</v>
+        <v>405.2812494596249</v>
       </c>
       <c r="F50" t="n">
-        <v>1200.22232206869</v>
+        <v>405.2812502161501</v>
       </c>
       <c r="G50" t="n">
-        <v>1200.22232206869</v>
+        <v>405.2812502161501</v>
       </c>
       <c r="H50" t="n">
-        <v>1200.222322068688</v>
+        <v>405.2812502161494</v>
       </c>
       <c r="I50" t="n">
-        <v>160.0296418969665</v>
+        <v>54.0374996757755</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2056,34 +2056,34 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5329.322225426346</v>
+        <v>170.683333346988</v>
       </c>
       <c r="B51" t="n">
-        <v>5329.322224147309</v>
+        <v>170.683333306024</v>
       </c>
       <c r="C51" t="n">
-        <v>5329.322225426346</v>
+        <v>170.683333346988</v>
       </c>
       <c r="D51" t="n">
-        <v>6851.985721511534</v>
+        <v>219.45000011704</v>
       </c>
       <c r="E51" t="n">
-        <v>6851.98570872116</v>
+        <v>219.4499997073999</v>
       </c>
       <c r="F51" t="n">
-        <v>6851.985721511537</v>
+        <v>219.4500001170401</v>
       </c>
       <c r="G51" t="n">
-        <v>6851.985721511537</v>
+        <v>219.4500001170398</v>
       </c>
       <c r="H51" t="n">
-        <v>6851.985721511526</v>
+        <v>219.4500001170398</v>
       </c>
       <c r="I51" t="n">
-        <v>913.5980902327057</v>
+        <v>219.4499997074001</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>219.4500001170401</v>
       </c>
     </row>
     <row r="52">
@@ -2120,63 +2120,63 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>23683.333335228</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>23683.33332954401</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>23683.333335228</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>30450.00001624</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>30449.99995939999</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>30450.00001624001</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>30450.00001623998</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>30450.00001623998</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>30449.99995940001</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>30450.00001624001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>15.1812500012145</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>15.181249997571</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>15.1812500012145</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>19.51875001041</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>19.51874997397499</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>19.51875001041001</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>19.51875001041001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>19.51875001040997</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2.602499984385025</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -2184,31 +2184,31 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>18.8854166681775</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>18.885416663645</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>18.8854166681775</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>24.28125001294999</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>24.28124996762499</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>24.28125001295</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>24.28125001295</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>24.28125001294996</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>3.23749998057503</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2216,31 +2216,31 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>50.604166670715</v>
+        <v>1372.425000109794</v>
       </c>
       <c r="B56" t="n">
-        <v>50.60416665857001</v>
+        <v>1372.424999780412</v>
       </c>
       <c r="C56" t="n">
-        <v>50.604166670715</v>
+        <v>1372.425000109794</v>
       </c>
       <c r="D56" t="n">
-        <v>65.06250003469999</v>
+        <v>1764.54642951252</v>
       </c>
       <c r="E56" t="n">
-        <v>65.06249991324998</v>
+        <v>1764.546426218699</v>
       </c>
       <c r="F56" t="n">
-        <v>65.06250003470002</v>
+        <v>1764.54642951252</v>
       </c>
       <c r="G56" t="n">
-        <v>65.06250003470002</v>
+        <v>1764.54642951252</v>
       </c>
       <c r="H56" t="n">
-        <v>65.06250003469991</v>
+        <v>1764.546429512517</v>
       </c>
       <c r="I56" t="n">
-        <v>8.674999947950081</v>
+        <v>235.2728557312222</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -2248,31 +2248,31 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1740.447916805902</v>
+        <v>461.9562500369564</v>
       </c>
       <c r="B57" t="n">
-        <v>1740.447916388195</v>
+        <v>461.956249926087</v>
       </c>
       <c r="C57" t="n">
-        <v>1740.447916805902</v>
+        <v>461.9562500369564</v>
       </c>
       <c r="D57" t="n">
-        <v>2237.718751193449</v>
+        <v>593.9437503167699</v>
       </c>
       <c r="E57" t="n">
-        <v>2237.718747016374</v>
+        <v>593.9437492080748</v>
       </c>
       <c r="F57" t="n">
-        <v>2237.71875119345</v>
+        <v>593.9437503167701</v>
       </c>
       <c r="G57" t="n">
-        <v>2237.71875119345</v>
+        <v>593.9437503167701</v>
       </c>
       <c r="H57" t="n">
-        <v>2237.718751193446</v>
+        <v>593.9437503167692</v>
       </c>
       <c r="I57" t="n">
-        <v>298.3624982098277</v>
+        <v>79.19249952484573</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -2280,31 +2280,31 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>23.57687500188615</v>
+        <v>3642.331250291386</v>
       </c>
       <c r="B58" t="n">
-        <v>23.5768749962277</v>
+        <v>3642.331249417227</v>
       </c>
       <c r="C58" t="n">
-        <v>23.57687500188615</v>
+        <v>3642.331250291386</v>
       </c>
       <c r="D58" t="n">
-        <v>30.313125016167</v>
+        <v>4682.997323926169</v>
       </c>
       <c r="E58" t="n">
-        <v>30.31312495958249</v>
+        <v>4682.997315184573</v>
       </c>
       <c r="F58" t="n">
-        <v>30.31312501616701</v>
+        <v>4682.997323926171</v>
       </c>
       <c r="G58" t="n">
-        <v>30.31312501616701</v>
+        <v>4682.997323926171</v>
       </c>
       <c r="H58" t="n">
-        <v>30.31312501616696</v>
+        <v>4682.997323926164</v>
       </c>
       <c r="I58" t="n">
-        <v>4.041749975749537</v>
+        <v>624.3996391107507</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -2312,31 +2312,31 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0</v>
+        <v>485.5750000388459</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>485.5749999223081</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>485.5750000388459</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>624.3107146186799</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>624.3107134532997</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>624.3107146186801</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>624.3107146186801</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>624.3107146186791</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>83.24142807198076</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -2344,31 +2344,31 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1740.146041805878</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>1740.146041388243</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1740.146041805878</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>2237.330626193243</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>2237.330622016892</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>2237.330626193243</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>2237.330626193243</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>2237.33062619324</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>298.3107482101382</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -2376,31 +2376,31 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4458.895000356712</v>
+        <v>1749.742968889979</v>
       </c>
       <c r="B61" t="n">
-        <v>4458.894999286579</v>
+        <v>1749.742968470041</v>
       </c>
       <c r="C61" t="n">
-        <v>4458.895000356712</v>
+        <v>1749.742968889979</v>
       </c>
       <c r="D61" t="n">
-        <v>5732.865003057529</v>
+        <v>2249.669532449823</v>
       </c>
       <c r="E61" t="n">
-        <v>5732.864992356181</v>
+        <v>2249.66952825044</v>
       </c>
       <c r="F61" t="n">
-        <v>5732.865003057532</v>
+        <v>2249.669532449824</v>
       </c>
       <c r="G61" t="n">
-        <v>5732.865003057532</v>
+        <v>2249.669532449824</v>
       </c>
       <c r="H61" t="n">
-        <v>5732.865003057522</v>
+        <v>2249.669532449821</v>
       </c>
       <c r="I61" t="n">
-        <v>764.3819954137153</v>
+        <v>299.9559357002671</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -2408,63 +2408,63 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>11183.08698006131</v>
+        <v>3016.189166907961</v>
       </c>
       <c r="B62" t="n">
-        <v>11183.08697737737</v>
+        <v>3016.189166184077</v>
       </c>
       <c r="C62" t="n">
-        <v>11183.08698006131</v>
+        <v>3016.189166907961</v>
       </c>
       <c r="D62" t="n">
-        <v>14378.2546951684</v>
+        <v>3877.957502068244</v>
       </c>
       <c r="E62" t="n">
-        <v>14378.25466832899</v>
+        <v>3877.957494829389</v>
       </c>
       <c r="F62" t="n">
-        <v>14378.2546951684</v>
+        <v>3877.957502068246</v>
       </c>
       <c r="G62" t="n">
-        <v>14378.2546951684</v>
+        <v>3877.957502068241</v>
       </c>
       <c r="H62" t="n">
-        <v>14378.25469516838</v>
+        <v>3877.957502068241</v>
       </c>
       <c r="I62" t="n">
-        <v>1917.100613497414</v>
+        <v>3877.957494829391</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>3877.957502068246</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>203.5250000162819</v>
+        <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>203.524999967436</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>203.5250000162819</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>261.6750001395599</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>261.6749996510998</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>261.67500013956</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>261.67500013956</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>261.6750001395596</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>34.88999979066031</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -2472,31 +2472,31 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>357.2916666952499</v>
+        <v>1976.428125158114</v>
       </c>
       <c r="B64" t="n">
-        <v>357.2916666095001</v>
+        <v>1976.428124683772</v>
       </c>
       <c r="C64" t="n">
-        <v>357.2916666952499</v>
+        <v>1976.428125158114</v>
       </c>
       <c r="D64" t="n">
-        <v>459.375000245</v>
+        <v>2541.121876355265</v>
       </c>
       <c r="E64" t="n">
-        <v>459.3749993874999</v>
+        <v>2541.121871611836</v>
       </c>
       <c r="F64" t="n">
-        <v>459.3750002450001</v>
+        <v>2541.121876355266</v>
       </c>
       <c r="G64" t="n">
-        <v>459.3750002450001</v>
+        <v>2541.121876355266</v>
       </c>
       <c r="H64" t="n">
-        <v>459.3750002449993</v>
+        <v>2541.121876355262</v>
       </c>
       <c r="I64" t="n">
-        <v>61.24999963250057</v>
+        <v>338.8162479671057</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -2504,31 +2504,31 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>461.9562500369564</v>
+        <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>461.956249926087</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>461.9562500369564</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>593.9437503167699</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>593.9437492080748</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>593.9437503167701</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>593.9437503167701</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>593.9437503167692</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>79.19249952484573</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -2536,31 +2536,31 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>570.8427083790008</v>
+        <v>24.75000000198</v>
       </c>
       <c r="B66" t="n">
-        <v>570.8427082419987</v>
+        <v>24.74999999604</v>
       </c>
       <c r="C66" t="n">
-        <v>570.8427083790008</v>
+        <v>24.75000000198</v>
       </c>
       <c r="D66" t="n">
-        <v>733.940625391435</v>
+        <v>31.8214285884</v>
       </c>
       <c r="E66" t="n">
-        <v>733.9406240214124</v>
+        <v>31.82142852899999</v>
       </c>
       <c r="F66" t="n">
-        <v>733.9406253914353</v>
+        <v>31.82142858840001</v>
       </c>
       <c r="G66" t="n">
-        <v>733.9406253914353</v>
+        <v>31.82142858840001</v>
       </c>
       <c r="H66" t="n">
-        <v>733.9406253914341</v>
+        <v>31.82142858839995</v>
       </c>
       <c r="I66" t="n">
-        <v>97.85874941284843</v>
+        <v>4.242857117400039</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -2568,31 +2568,31 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>9846.033750787681</v>
+        <v>3732.750000298619</v>
       </c>
       <c r="B67" t="n">
-        <v>9846.033748424636</v>
+        <v>3732.74999940276</v>
       </c>
       <c r="C67" t="n">
-        <v>9846.033750787681</v>
+        <v>3732.750000298619</v>
       </c>
       <c r="D67" t="n">
-        <v>12659.18625675156</v>
+        <v>4799.250002559598</v>
       </c>
       <c r="E67" t="n">
-        <v>12659.18623312108</v>
+        <v>4799.249993600998</v>
       </c>
       <c r="F67" t="n">
-        <v>12659.18625675157</v>
+        <v>4799.250002559601</v>
       </c>
       <c r="G67" t="n">
-        <v>12659.18625675157</v>
+        <v>4799.250002559601</v>
       </c>
       <c r="H67" t="n">
-        <v>12659.18625675155</v>
+        <v>4799.250002559593</v>
       </c>
       <c r="I67" t="n">
-        <v>1687.891489872667</v>
+        <v>639.8999961606058</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -2600,31 +2600,31 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>327.395833359525</v>
+        <v>2129.822916837052</v>
       </c>
       <c r="B68" t="n">
-        <v>327.3958332809501</v>
+        <v>2129.822916325895</v>
       </c>
       <c r="C68" t="n">
-        <v>327.395833359525</v>
+        <v>2129.822916837052</v>
       </c>
       <c r="D68" t="n">
-        <v>420.9375002245</v>
+        <v>2738.343751460449</v>
       </c>
       <c r="E68" t="n">
-        <v>420.9374994387499</v>
+        <v>2738.343746348874</v>
       </c>
       <c r="F68" t="n">
-        <v>420.9375002245001</v>
+        <v>2738.343751460451</v>
       </c>
       <c r="G68" t="n">
-        <v>420.9375002245001</v>
+        <v>2738.343751460451</v>
       </c>
       <c r="H68" t="n">
-        <v>420.9375002244994</v>
+        <v>2738.343751460446</v>
       </c>
       <c r="I68" t="n">
-        <v>56.12499966325052</v>
+        <v>365.1124978093284</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -2632,31 +2632,31 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>753.2291667269249</v>
+        <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>753.2291665461501</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>753.2291667269249</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>968.4375005164998</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>968.4374987087496</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>968.4375005165001</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>968.4375005165001</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>968.4375005164985</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>129.1249992252512</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -2664,31 +2664,31 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0</v>
+        <v>570.8427083790007</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>570.8427082419985</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>570.8427083790007</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>733.9406253914348</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>733.9406240214122</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>733.9406253914351</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>733.9406253914351</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>733.9406253914339</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>97.8587494128484</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -2696,31 +2696,31 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>451.7916667028099</v>
+        <v>1058.7500000847</v>
       </c>
       <c r="B71" t="n">
-        <v>451.79166659438</v>
+        <v>1058.7499998306</v>
       </c>
       <c r="C71" t="n">
-        <v>451.7916667028099</v>
+        <v>1058.7500000847</v>
       </c>
       <c r="D71" t="n">
-        <v>580.8750003097999</v>
+        <v>1361.250000726</v>
       </c>
       <c r="E71" t="n">
-        <v>580.8749992254998</v>
+        <v>1361.249998185</v>
       </c>
       <c r="F71" t="n">
-        <v>580.8750003098002</v>
+        <v>1361.250000726</v>
       </c>
       <c r="G71" t="n">
-        <v>580.8750003098002</v>
+        <v>1361.250000726</v>
       </c>
       <c r="H71" t="n">
-        <v>580.8750003097991</v>
+        <v>1361.250000725998</v>
       </c>
       <c r="I71" t="n">
-        <v>77.44999953530072</v>
+        <v>181.4999989110017</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -2728,31 +2728,31 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1049.854166750655</v>
+        <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>1049.85416649869</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>1049.854166750655</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1349.8125007199</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1349.81249820025</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1349.812500719901</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1349.812500719901</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>1349.812500719898</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>179.9749989201517</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -2760,31 +2760,31 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5955.293750476423</v>
+        <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>5955.293749047154</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>5955.293750476423</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>7656.806254083629</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>7656.806239790923</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>7656.806254083632</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>7656.806254083632</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>7656.806254083619</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1020.907493874564</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -2792,31 +2792,31 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>11577.32187592619</v>
+        <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>11577.32187314763</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>11577.32187592619</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>14885.12813293874</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>14885.12810515316</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>14885.12813293874</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>14885.12813293874</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>14885.12813293872</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1984.683738091916</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -2824,31 +2824,31 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1612.62500012901</v>
+        <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>1612.62499974198</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>1612.62500012901</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>2073.3750011058</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>2073.374997235499</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>2073.3750011058</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>2073.3750011058</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>2073.375001105797</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>276.4499983413026</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -2856,31 +2856,31 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2505.475000200438</v>
+        <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>2505.474999599125</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>2505.475000200438</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>3221.32500171804</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>3221.324995704899</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>3221.325001718041</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>3221.325001718041</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>3221.325001718036</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>429.509997422944</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -2888,31 +2888,31 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4253.714221354787</v>
+        <v>9846.033750787681</v>
       </c>
       <c r="B77" t="n">
-        <v>4253.714220333896</v>
+        <v>9846.033748424634</v>
       </c>
       <c r="C77" t="n">
-        <v>4253.714221354787</v>
+        <v>9846.033750787681</v>
       </c>
       <c r="D77" t="n">
-        <v>5469.061144221176</v>
+        <v>12659.18625675156</v>
       </c>
       <c r="E77" t="n">
-        <v>5469.061134012261</v>
+        <v>12659.18623312108</v>
       </c>
       <c r="F77" t="n">
-        <v>5469.061144221178</v>
+        <v>12659.18625675157</v>
       </c>
       <c r="G77" t="n">
-        <v>5469.061144221178</v>
+        <v>12659.18625675157</v>
       </c>
       <c r="H77" t="n">
-        <v>5469.061144221169</v>
+        <v>12659.18625675155</v>
       </c>
       <c r="I77" t="n">
-        <v>729.2081477986704</v>
+        <v>1687.891489872666</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -2920,31 +2920,31 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>55.05208333773749</v>
+        <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>55.05208332452501</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>55.05208333773749</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>70.78125003774998</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>70.78124990562497</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>70.78125003775001</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>70.78125003775001</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>70.7812500377499</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>9.437499943375087</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -2952,31 +2952,31 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>6893.250000551459</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>6893.249998897081</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>6893.250000551459</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>8862.750004726799</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>8862.749988182997</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>8862.750004726802</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>8862.750004726802</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>8862.750004726788</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1181.699992909811</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -2984,31 +2984,31 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1710.121875136809</v>
+        <v>5101.979167074825</v>
       </c>
       <c r="B80" t="n">
-        <v>1710.121874726381</v>
+        <v>5101.979165850351</v>
       </c>
       <c r="C80" t="n">
-        <v>1710.121875136809</v>
+        <v>5101.979167074825</v>
       </c>
       <c r="D80" t="n">
-        <v>2198.728126172654</v>
+        <v>6559.687503498499</v>
       </c>
       <c r="E80" t="n">
-        <v>2198.728122068362</v>
+        <v>6559.687491253748</v>
       </c>
       <c r="F80" t="n">
-        <v>2198.728126172655</v>
+        <v>6559.687503498501</v>
       </c>
       <c r="G80" t="n">
-        <v>2198.728126172655</v>
+        <v>6559.687503498501</v>
       </c>
       <c r="H80" t="n">
-        <v>2198.728126172652</v>
+        <v>6559.687503498491</v>
       </c>
       <c r="I80" t="n">
-        <v>293.1637482410202</v>
+        <v>874.6249947522581</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -3048,31 +3048,31 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3239.352083592483</v>
+        <v>2432.810625194625</v>
       </c>
       <c r="B82" t="n">
-        <v>3239.352082815039</v>
+        <v>2432.810624610751</v>
       </c>
       <c r="C82" t="n">
-        <v>3239.352083592483</v>
+        <v>2432.810625194625</v>
       </c>
       <c r="D82" t="n">
-        <v>4164.881252221271</v>
+        <v>3127.899376668212</v>
       </c>
       <c r="E82" t="n">
-        <v>4164.881244446826</v>
+        <v>3127.899370829467</v>
       </c>
       <c r="F82" t="n">
-        <v>4164.881252221273</v>
+        <v>3127.899376668214</v>
       </c>
       <c r="G82" t="n">
-        <v>4164.881252221273</v>
+        <v>3127.899376668214</v>
       </c>
       <c r="H82" t="n">
-        <v>4164.881252221266</v>
+        <v>3127.899376668209</v>
       </c>
       <c r="I82" t="n">
-        <v>555.3174966681004</v>
+        <v>417.0532474976844</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -3112,31 +3112,31 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>351.0937500280875</v>
+        <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>351.0937499438251</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>351.0937500280875</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>451.40625024075</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>451.4062493981249</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>451.4062502407502</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>451.4062502407502</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>451.4062502407494</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>60.18749963887556</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -3304,31 +3304,31 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>376.562500030125</v>
+        <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>376.5624999397501</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>376.562500030125</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>484.1517859724999</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>484.1517850687499</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>484.1517859725001</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>484.1517859725001</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>484.1517859724993</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>64.55357104125059</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -3336,31 +3336,31 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>629.687500050375</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>629.6874998992502</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>629.687500050375</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>809.5982147174999</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>809.5982132062497</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>809.5982147175002</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>809.5982147175002</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>809.5982147174989</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>107.946427923751</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -3400,31 +3400,31 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>5029.79166706905</v>
+        <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>5029.791665861901</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>5029.79166706905</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>6466.875003449</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>6466.874991377499</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>6466.875003449003</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>6466.875003449003</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>6466.875003448992</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>862.2499948265081</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -3464,31 +3464,31 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>24.8645833353225</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>24.864583329355</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>24.8645833353225</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>31.96875001705</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>31.96874995737499</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>31.96875001705001</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>31.96875001705001</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>31.96875001704996</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>4.262499974425039</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -3528,31 +3528,31 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2453.354166862935</v>
+        <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>2453.35416627413</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>2453.354166862935</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>3154.3125016823</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>3154.312495794249</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>3154.312501682301</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>3154.312501682301</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>3154.312501682296</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>420.5749974765539</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -3592,31 +3592,31 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>68.76041667216748</v>
+        <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>68.76041665566498</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>68.76041667216748</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>88.40625004714997</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>88.40624988212495</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>88.40625004715</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>88.40625004715</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>88.40625004714985</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>11.78749992927511</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -3720,63 +3720,63 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>7631.575000610525</v>
+        <v>0</v>
       </c>
       <c r="B103" t="n">
-        <v>7631.57499877895</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>7631.575000610524</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>9812.025005233079</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>9812.024986917297</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>9812.025005233085</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>9812.025005233074</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>9812.025005233074</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>9812.024986917302</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>9812.025005233085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0</v>
+        <v>327.395833359525</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>327.3958332809501</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>327.395833359525</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>420.9375002245</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>420.9374994387499</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>420.9375002245001</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>420.9375002245001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>420.9375002244994</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>56.12499966325052</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -3784,66 +3784,66 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>321.4050000257123</v>
+        <v>12230.84295501892</v>
       </c>
       <c r="B105" t="n">
-        <v>321.4049999485752</v>
+        <v>12230.84295208352</v>
       </c>
       <c r="C105" t="n">
-        <v>321.4050000257122</v>
+        <v>12230.84295501892</v>
       </c>
       <c r="D105" t="n">
-        <v>413.2350002203918</v>
+        <v>15725.36952072459</v>
       </c>
       <c r="E105" t="n">
-        <v>413.2349994490198</v>
+        <v>15725.36949137056</v>
       </c>
       <c r="F105" t="n">
-        <v>413.2350002203921</v>
+        <v>15725.3695207246</v>
       </c>
       <c r="G105" t="n">
-        <v>413.2350002203917</v>
+        <v>15725.3695207246</v>
       </c>
       <c r="H105" t="n">
-        <v>413.2350002203917</v>
+        <v>15725.36952072457</v>
       </c>
       <c r="I105" t="n">
-        <v>413.23499944902</v>
+        <v>2096.715922398088</v>
       </c>
       <c r="J105" t="n">
-        <v>413.2350002203921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>505.9950000404797</v>
+        <v>6494.918325519592</v>
       </c>
       <c r="B106" t="n">
-        <v>505.994999919041</v>
+        <v>6494.918323960814</v>
       </c>
       <c r="C106" t="n">
-        <v>505.9950000404796</v>
+        <v>6494.918325519591</v>
       </c>
       <c r="D106" t="n">
-        <v>650.5650003469681</v>
+        <v>8350.609279453656</v>
       </c>
       <c r="E106" t="n">
-        <v>650.5649991325801</v>
+        <v>8350.609263865852</v>
       </c>
       <c r="F106" t="n">
-        <v>650.5650003469684</v>
+        <v>8350.60927945366</v>
       </c>
       <c r="G106" t="n">
-        <v>650.5650003469678</v>
+        <v>8350.609279453653</v>
       </c>
       <c r="H106" t="n">
-        <v>650.5650003469678</v>
+        <v>8350.609279453653</v>
       </c>
       <c r="I106" t="n">
-        <v>650.5649991325804</v>
+        <v>8350.609263865856</v>
       </c>
       <c r="J106" t="n">
-        <v>650.5650003469684</v>
+        <v>8350.60927945366</v>
       </c>
     </row>
     <row r="107">
@@ -3880,34 +3880,34 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>428.7500000343</v>
+        <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>428.7499999314001</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>428.7500000342999</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>551.250000294</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>551.2499992649999</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>551.2500002940003</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>551.2500002939997</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>551.2500002939997</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>551.2499992650002</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>551.2500002940003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -3944,162 +3944,162 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>204.1515000163321</v>
+        <v>15578.27168874626</v>
       </c>
       <c r="B110" t="n">
-        <v>204.1514999673358</v>
+        <v>15578.27168500748</v>
       </c>
       <c r="C110" t="n">
-        <v>204.1515000163321</v>
+        <v>15578.27168874626</v>
       </c>
       <c r="D110" t="n">
-        <v>262.4805001399896</v>
+        <v>20029.20646603938</v>
       </c>
       <c r="E110" t="n">
-        <v>262.480499650026</v>
+        <v>20029.20642865153</v>
       </c>
       <c r="F110" t="n">
-        <v>262.4805001399898</v>
+        <v>20029.20646603939</v>
       </c>
       <c r="G110" t="n">
-        <v>262.4805001399895</v>
+        <v>20029.20646603939</v>
       </c>
       <c r="H110" t="n">
-        <v>262.4805001399895</v>
+        <v>20029.20646603936</v>
       </c>
       <c r="I110" t="n">
-        <v>262.4804996500261</v>
+        <v>2670.560844690945</v>
       </c>
       <c r="J110" t="n">
-        <v>262.4805001399898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>309.0150000247212</v>
+        <v>692.7083333887499</v>
       </c>
       <c r="B111" t="n">
-        <v>309.0149999505577</v>
+        <v>692.7083332225001</v>
       </c>
       <c r="C111" t="n">
-        <v>309.0150000247211</v>
+        <v>692.7083333887499</v>
       </c>
       <c r="D111" t="n">
-        <v>397.305000211896</v>
+        <v>890.6250004749999</v>
       </c>
       <c r="E111" t="n">
-        <v>397.3049994702599</v>
+        <v>890.6249988124997</v>
       </c>
       <c r="F111" t="n">
-        <v>397.3050002118962</v>
+        <v>890.6250004750002</v>
       </c>
       <c r="G111" t="n">
-        <v>397.3050002118958</v>
+        <v>890.6250004750002</v>
       </c>
       <c r="H111" t="n">
-        <v>397.3050002118958</v>
+        <v>890.6250004749987</v>
       </c>
       <c r="I111" t="n">
-        <v>397.3049994702601</v>
+        <v>118.7499992875011</v>
       </c>
       <c r="J111" t="n">
-        <v>397.3050002118962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1213.91666676378</v>
+        <v>753.2291667269249</v>
       </c>
       <c r="B112" t="n">
-        <v>1213.916666472441</v>
+        <v>753.2291665461501</v>
       </c>
       <c r="C112" t="n">
-        <v>1213.91666676378</v>
+        <v>753.2291667269249</v>
       </c>
       <c r="D112" t="n">
-        <v>1560.7500008324</v>
+        <v>968.4375005164998</v>
       </c>
       <c r="E112" t="n">
-        <v>1560.749997919</v>
+        <v>968.4374987087496</v>
       </c>
       <c r="F112" t="n">
-        <v>1560.750000832401</v>
+        <v>968.4375005165001</v>
       </c>
       <c r="G112" t="n">
-        <v>1560.750000832399</v>
+        <v>968.4375005165001</v>
       </c>
       <c r="H112" t="n">
-        <v>1560.750000832399</v>
+        <v>968.4375005164985</v>
       </c>
       <c r="I112" t="n">
-        <v>1560.749997919001</v>
+        <v>129.1249992252512</v>
       </c>
       <c r="J112" t="n">
-        <v>1560.750000832401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>8443.73483400883</v>
+        <v>2087.96583350037</v>
       </c>
       <c r="B113" t="n">
-        <v>8443.734831982336</v>
+        <v>2087.965832999259</v>
       </c>
       <c r="C113" t="n">
-        <v>8443.734834008828</v>
+        <v>2087.96583350037</v>
       </c>
       <c r="D113" t="n">
-        <v>10856.23050578999</v>
+        <v>2684.527501431748</v>
       </c>
       <c r="E113" t="n">
-        <v>10856.23048552502</v>
+        <v>2684.527496420629</v>
       </c>
       <c r="F113" t="n">
-        <v>10856.23050578999</v>
+        <v>2684.527501431749</v>
       </c>
       <c r="G113" t="n">
-        <v>10856.23050578998</v>
+        <v>2684.527501431746</v>
       </c>
       <c r="H113" t="n">
-        <v>10856.23050578998</v>
+        <v>2684.527501431746</v>
       </c>
       <c r="I113" t="n">
-        <v>10856.23048552503</v>
+        <v>2684.527496420631</v>
       </c>
       <c r="J113" t="n">
-        <v>10856.23050578999</v>
+        <v>2684.527501431749</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>252.175000020174</v>
+        <v>0</v>
       </c>
       <c r="B114" t="n">
-        <v>252.1749999596521</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>252.1750000201739</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>324.22500017292</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>324.2249995676999</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>324.2250001729201</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>324.2250001729198</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>324.2250001729198</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>324.2249995677001</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>324.2250001729201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -4136,159 +4136,159 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>170.683333346988</v>
+        <v>451.7916667028099</v>
       </c>
       <c r="B116" t="n">
-        <v>170.683333306024</v>
+        <v>451.79166659438</v>
       </c>
       <c r="C116" t="n">
-        <v>170.683333346988</v>
+        <v>451.7916667028099</v>
       </c>
       <c r="D116" t="n">
-        <v>219.45000011704</v>
+        <v>580.8750003097999</v>
       </c>
       <c r="E116" t="n">
-        <v>219.4499997073999</v>
+        <v>580.8749992254998</v>
       </c>
       <c r="F116" t="n">
-        <v>219.4500001170401</v>
+        <v>580.8750003098002</v>
       </c>
       <c r="G116" t="n">
-        <v>219.4500001170398</v>
+        <v>580.8750003098002</v>
       </c>
       <c r="H116" t="n">
-        <v>219.4500001170398</v>
+        <v>580.8750003097991</v>
       </c>
       <c r="I116" t="n">
-        <v>219.4499997074001</v>
+        <v>77.44999953530072</v>
       </c>
       <c r="J116" t="n">
-        <v>219.4500001170401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2799.588750223967</v>
+        <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>2799.588749552066</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>2799.588750223966</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>3599.471251919717</v>
+        <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3599.471245200704</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>3599.471251919719</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>3599.471251919716</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>3599.471251919716</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>3599.471245200706</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>3599.471251919719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>3016.189166907961</v>
+        <v>1049.854166750655</v>
       </c>
       <c r="B118" t="n">
-        <v>3016.189166184077</v>
+        <v>1049.85416649869</v>
       </c>
       <c r="C118" t="n">
-        <v>3016.189166907961</v>
+        <v>1049.854166750655</v>
       </c>
       <c r="D118" t="n">
-        <v>3877.957502068244</v>
+        <v>1349.8125007199</v>
       </c>
       <c r="E118" t="n">
-        <v>3877.957494829389</v>
+        <v>1349.812498200249</v>
       </c>
       <c r="F118" t="n">
-        <v>3877.957502068246</v>
+        <v>1349.8125007199</v>
       </c>
       <c r="G118" t="n">
-        <v>3877.957502068241</v>
+        <v>1349.8125007199</v>
       </c>
       <c r="H118" t="n">
-        <v>3877.957502068241</v>
+        <v>1349.812500719898</v>
       </c>
       <c r="I118" t="n">
-        <v>3877.957494829391</v>
+        <v>179.9749989201516</v>
       </c>
       <c r="J118" t="n">
-        <v>3877.957502068246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2108.190000168655</v>
+        <v>5955.293750476423</v>
       </c>
       <c r="B119" t="n">
-        <v>2108.18999966269</v>
+        <v>5955.293749047154</v>
       </c>
       <c r="C119" t="n">
-        <v>2108.190000168654</v>
+        <v>5955.293750476423</v>
       </c>
       <c r="D119" t="n">
-        <v>2710.530001445616</v>
+        <v>7656.806254083629</v>
       </c>
       <c r="E119" t="n">
-        <v>2710.529996385959</v>
+        <v>7656.806239790923</v>
       </c>
       <c r="F119" t="n">
-        <v>2710.530001445617</v>
+        <v>7656.806254083632</v>
       </c>
       <c r="G119" t="n">
-        <v>2710.530001445614</v>
+        <v>7656.806254083632</v>
       </c>
       <c r="H119" t="n">
-        <v>2710.530001445614</v>
+        <v>7656.806254083619</v>
       </c>
       <c r="I119" t="n">
-        <v>2710.529996385961</v>
+        <v>1020.907493874564</v>
       </c>
       <c r="J119" t="n">
-        <v>2710.530001445617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>9970.625000797649</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>9970.624998404701</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>9970.625000797649</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>12819.375006837</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>12819.3749829075</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>12819.375006837</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>12819.375006837</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>12819.37500683698</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1709.249989744516</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -4296,575 +4296,575 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>3407.716666939282</v>
+        <v>217.4316666840612</v>
       </c>
       <c r="B121" t="n">
-        <v>3407.716666121431</v>
+        <v>217.4316666318776</v>
       </c>
       <c r="C121" t="n">
-        <v>3407.716666939282</v>
+        <v>217.4316666840611</v>
       </c>
       <c r="D121" t="n">
-        <v>4381.350002336718</v>
+        <v>279.555000149096</v>
       </c>
       <c r="E121" t="n">
-        <v>4381.349994158198</v>
+        <v>279.5549996272599</v>
       </c>
       <c r="F121" t="n">
-        <v>4381.350002336721</v>
+        <v>279.5550001490961</v>
       </c>
       <c r="G121" t="n">
-        <v>4381.350002336716</v>
+        <v>279.5550001490958</v>
       </c>
       <c r="H121" t="n">
-        <v>4381.350002336716</v>
+        <v>279.5550001490958</v>
       </c>
       <c r="I121" t="n">
-        <v>4381.349994158199</v>
+        <v>279.5549996272601</v>
       </c>
       <c r="J121" t="n">
-        <v>4381.350002336721</v>
+        <v>279.5550001490961</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0</v>
+        <v>267.516666688068</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>267.5166666238641</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>267.5166666880679</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>343.95000018344</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>343.9499995413999</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>343.9500001834401</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>343.9500001834398</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>343.9500001834398</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>343.9499995414001</v>
       </c>
       <c r="J122" t="n">
-        <v>0</v>
+        <v>343.9500001834401</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2608.106666875315</v>
+        <v>83.19791667332248</v>
       </c>
       <c r="B123" t="n">
-        <v>2608.10666624937</v>
+        <v>83.19791665335501</v>
       </c>
       <c r="C123" t="n">
-        <v>2608.106666875315</v>
+        <v>83.19791667332248</v>
       </c>
       <c r="D123" t="n">
-        <v>3353.280001788416</v>
+        <v>106.96875005705</v>
       </c>
       <c r="E123" t="n">
-        <v>3353.279995528959</v>
+        <v>106.968749857375</v>
       </c>
       <c r="F123" t="n">
-        <v>3353.280001788417</v>
+        <v>106.96875005705</v>
       </c>
       <c r="G123" t="n">
-        <v>3353.280001788414</v>
+        <v>106.96875005705</v>
       </c>
       <c r="H123" t="n">
-        <v>3353.280001788414</v>
+        <v>106.9687500570498</v>
       </c>
       <c r="I123" t="n">
-        <v>3353.279995528961</v>
+        <v>14.26249991442513</v>
       </c>
       <c r="J123" t="n">
-        <v>3353.280001788417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1946.2485001557</v>
+        <v>376.562500030125</v>
       </c>
       <c r="B124" t="n">
-        <v>1946.248499688601</v>
+        <v>376.5624999397501</v>
       </c>
       <c r="C124" t="n">
-        <v>1946.2485001557</v>
+        <v>376.562500030125</v>
       </c>
       <c r="D124" t="n">
-        <v>2502.319501334571</v>
+        <v>484.1517859724999</v>
       </c>
       <c r="E124" t="n">
-        <v>2502.319496663574</v>
+        <v>484.1517850687499</v>
       </c>
       <c r="F124" t="n">
-        <v>2502.319501334572</v>
+        <v>484.1517859725001</v>
       </c>
       <c r="G124" t="n">
-        <v>2502.319501334569</v>
+        <v>484.1517859725001</v>
       </c>
       <c r="H124" t="n">
-        <v>2502.319501334569</v>
+        <v>484.1517859724993</v>
       </c>
       <c r="I124" t="n">
-        <v>2502.319496663575</v>
+        <v>64.55357104125059</v>
       </c>
       <c r="J124" t="n">
-        <v>2502.319501334572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>6494.918325519594</v>
+        <v>1740.447916805902</v>
       </c>
       <c r="B125" t="n">
-        <v>6494.918323960816</v>
+        <v>1740.447916388195</v>
       </c>
       <c r="C125" t="n">
-        <v>6494.918325519593</v>
+        <v>1740.447916805902</v>
       </c>
       <c r="D125" t="n">
-        <v>8350.60927945366</v>
+        <v>2237.718751193449</v>
       </c>
       <c r="E125" t="n">
-        <v>8350.609263865854</v>
+        <v>2237.718747016374</v>
       </c>
       <c r="F125" t="n">
-        <v>8350.609279453663</v>
+        <v>2237.71875119345</v>
       </c>
       <c r="G125" t="n">
-        <v>8350.609279453654</v>
+        <v>2237.71875119345</v>
       </c>
       <c r="H125" t="n">
-        <v>8350.609279453654</v>
+        <v>2237.718751193447</v>
       </c>
       <c r="I125" t="n">
-        <v>8350.609263865859</v>
+        <v>298.3624982098278</v>
       </c>
       <c r="J125" t="n">
-        <v>8350.609279453663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2087.965833500371</v>
+        <v>42.29166667005</v>
       </c>
       <c r="B126" t="n">
-        <v>2087.965832999259</v>
+        <v>42.29166665990001</v>
       </c>
       <c r="C126" t="n">
-        <v>2087.96583350037</v>
+        <v>42.29166667005</v>
       </c>
       <c r="D126" t="n">
-        <v>2684.527501431748</v>
+        <v>54.37500002899999</v>
       </c>
       <c r="E126" t="n">
-        <v>2684.52749642063</v>
+        <v>54.37499992749999</v>
       </c>
       <c r="F126" t="n">
-        <v>2684.527501431749</v>
+        <v>54.37500002900001</v>
       </c>
       <c r="G126" t="n">
-        <v>2684.527501431747</v>
+        <v>54.37500002900001</v>
       </c>
       <c r="H126" t="n">
-        <v>2684.527501431747</v>
+        <v>54.37500002899993</v>
       </c>
       <c r="I126" t="n">
-        <v>2684.527496420631</v>
+        <v>7.249999956500067</v>
       </c>
       <c r="J126" t="n">
-        <v>2684.527501431749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>217.4316666840612</v>
+        <v>892.9292969464343</v>
       </c>
       <c r="B127" t="n">
-        <v>217.4316666318776</v>
+        <v>892.9292967321314</v>
       </c>
       <c r="C127" t="n">
-        <v>217.4316666840611</v>
+        <v>892.9292969464343</v>
       </c>
       <c r="D127" t="n">
-        <v>279.555000149096</v>
+        <v>1148.051953737294</v>
       </c>
       <c r="E127" t="n">
-        <v>279.5549996272599</v>
+        <v>1148.051951594264</v>
       </c>
       <c r="F127" t="n">
-        <v>279.5550001490961</v>
+        <v>1148.051953737295</v>
       </c>
       <c r="G127" t="n">
-        <v>279.5550001490958</v>
+        <v>1148.051953737295</v>
       </c>
       <c r="H127" t="n">
-        <v>279.5550001490958</v>
+        <v>1148.051953737293</v>
       </c>
       <c r="I127" t="n">
-        <v>279.5549996272601</v>
+        <v>153.0735928315598</v>
       </c>
       <c r="J127" t="n">
-        <v>279.5550001490961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>267.516666688068</v>
+        <v>78.7500000063</v>
       </c>
       <c r="B128" t="n">
-        <v>267.5166666238641</v>
+        <v>78.74999998740002</v>
       </c>
       <c r="C128" t="n">
-        <v>267.5166666880679</v>
+        <v>78.7500000063</v>
       </c>
       <c r="D128" t="n">
-        <v>343.95000018344</v>
+        <v>101.250000054</v>
       </c>
       <c r="E128" t="n">
-        <v>343.9499995413999</v>
+        <v>101.249999865</v>
       </c>
       <c r="F128" t="n">
-        <v>343.9500001834401</v>
+        <v>101.250000054</v>
       </c>
       <c r="G128" t="n">
-        <v>343.9500001834398</v>
+        <v>101.250000054</v>
       </c>
       <c r="H128" t="n">
-        <v>343.9500001834398</v>
+        <v>101.2500000539999</v>
       </c>
       <c r="I128" t="n">
-        <v>343.9499995414001</v>
+        <v>13.49999991900012</v>
       </c>
       <c r="J128" t="n">
-        <v>343.9500001834401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>3470.296666944291</v>
+        <v>331.04166669315</v>
       </c>
       <c r="B129" t="n">
-        <v>3470.296666111421</v>
+        <v>331.0416666137</v>
       </c>
       <c r="C129" t="n">
-        <v>3470.296666944291</v>
+        <v>331.04166669315</v>
       </c>
       <c r="D129" t="n">
-        <v>4461.810002379633</v>
+        <v>425.6250002269999</v>
       </c>
       <c r="E129" t="n">
-        <v>4461.80999405092</v>
+        <v>425.6249994324999</v>
       </c>
       <c r="F129" t="n">
-        <v>4461.810002379635</v>
+        <v>425.6250002270001</v>
       </c>
       <c r="G129" t="n">
-        <v>4461.810002379631</v>
+        <v>425.6250002270001</v>
       </c>
       <c r="H129" t="n">
-        <v>4461.810002379631</v>
+        <v>425.6250002269994</v>
       </c>
       <c r="I129" t="n">
-        <v>4461.809994050923</v>
+        <v>56.74999965950052</v>
       </c>
       <c r="J129" t="n">
-        <v>4461.810002379635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>480.9058333718057</v>
+        <v>2208.098958509981</v>
       </c>
       <c r="B130" t="n">
-        <v>480.9058332563885</v>
+        <v>2208.098957980038</v>
       </c>
       <c r="C130" t="n">
-        <v>480.9058333718056</v>
+        <v>2208.098958509981</v>
       </c>
       <c r="D130" t="n">
-        <v>618.3075003297639</v>
+        <v>2838.984376514125</v>
       </c>
       <c r="E130" t="n">
-        <v>618.3074991755898</v>
+        <v>2838.984371214687</v>
       </c>
       <c r="F130" t="n">
-        <v>618.3075003297641</v>
+        <v>2838.984376514126</v>
       </c>
       <c r="G130" t="n">
-        <v>618.3075003297636</v>
+        <v>2838.984376514126</v>
       </c>
       <c r="H130" t="n">
-        <v>618.3075003297636</v>
+        <v>2838.984376514121</v>
       </c>
       <c r="I130" t="n">
-        <v>618.3074991755901</v>
+        <v>378.531247728816</v>
       </c>
       <c r="J130" t="n">
-        <v>618.3075003297641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>330.9390000264752</v>
+        <v>68.76041667216748</v>
       </c>
       <c r="B131" t="n">
-        <v>330.93899994705</v>
+        <v>68.760416655665</v>
       </c>
       <c r="C131" t="n">
-        <v>330.9390000264752</v>
+        <v>68.76041667216748</v>
       </c>
       <c r="D131" t="n">
-        <v>425.4930002269297</v>
+        <v>88.40625004714998</v>
       </c>
       <c r="E131" t="n">
-        <v>425.4929994326761</v>
+        <v>88.40624988212497</v>
       </c>
       <c r="F131" t="n">
-        <v>425.49300022693</v>
+        <v>88.40625004715001</v>
       </c>
       <c r="G131" t="n">
-        <v>425.4930002269295</v>
+        <v>88.40625004715001</v>
       </c>
       <c r="H131" t="n">
-        <v>425.4930002269295</v>
+        <v>88.40625004714987</v>
       </c>
       <c r="I131" t="n">
-        <v>425.4929994326763</v>
+        <v>11.78749992927511</v>
       </c>
       <c r="J131" t="n">
-        <v>425.49300022693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>552.41666671086</v>
+        <v>0</v>
       </c>
       <c r="B132" t="n">
-        <v>552.4166665782801</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>552.4166667108599</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>710.2500003788</v>
+        <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>710.2499990529999</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>710.2500003788003</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>710.2500003787997</v>
+        <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>710.2500003787997</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>710.2499990530002</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>710.2500003788003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>12622.48020934313</v>
+        <v>0</v>
       </c>
       <c r="B133" t="n">
-        <v>12622.48020631374</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>12622.48020934312</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>16228.90313365541</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>16228.90310336145</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>16228.90313365542</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>16228.9031336554</v>
+        <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>16228.9031336554</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>16228.90310336146</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>16228.90313365542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>7402.663333925543</v>
+        <v>0</v>
       </c>
       <c r="B134" t="n">
-        <v>7402.663332148906</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>7402.663333925541</v>
+        <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>9517.710005076107</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>9517.709987309714</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>9517.710005076113</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>9517.710005076104</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>9517.710005076104</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>9517.70998730972</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>9517.710005076113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>893.7600000715008</v>
+        <v>362.737500029019</v>
       </c>
       <c r="B135" t="n">
-        <v>893.7599998569987</v>
+        <v>362.7374999419621</v>
       </c>
       <c r="C135" t="n">
-        <v>893.7600000715007</v>
+        <v>362.737500029019</v>
       </c>
       <c r="D135" t="n">
-        <v>1149.120000612864</v>
+        <v>466.37678596302</v>
       </c>
       <c r="E135" t="n">
-        <v>1149.11999846784</v>
+        <v>466.3767850924499</v>
       </c>
       <c r="F135" t="n">
-        <v>1149.120000612865</v>
+        <v>466.3767859630202</v>
       </c>
       <c r="G135" t="n">
-        <v>1149.120000612863</v>
+        <v>466.3767859630202</v>
       </c>
       <c r="H135" t="n">
-        <v>1149.120000612863</v>
+        <v>466.3767859630194</v>
       </c>
       <c r="I135" t="n">
-        <v>1149.119998467841</v>
+        <v>62.18357105547058</v>
       </c>
       <c r="J135" t="n">
-        <v>1149.120000612865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2322.022500185762</v>
+        <v>5697.948958789169</v>
       </c>
       <c r="B136" t="n">
-        <v>2322.022499628477</v>
+        <v>5697.948957421662</v>
       </c>
       <c r="C136" t="n">
-        <v>2322.022500185761</v>
+        <v>5697.948958789169</v>
       </c>
       <c r="D136" t="n">
-        <v>2985.457501592244</v>
+        <v>7325.934378907164</v>
       </c>
       <c r="E136" t="n">
-        <v>2985.45749601939</v>
+        <v>7325.934365232085</v>
       </c>
       <c r="F136" t="n">
-        <v>2985.457501592246</v>
+        <v>7325.934378907166</v>
       </c>
       <c r="G136" t="n">
-        <v>2985.457501592242</v>
+        <v>7325.934378907166</v>
       </c>
       <c r="H136" t="n">
-        <v>2985.457501592242</v>
+        <v>7325.934378907154</v>
       </c>
       <c r="I136" t="n">
-        <v>2985.457496019391</v>
+        <v>976.7912441392615</v>
       </c>
       <c r="J136" t="n">
-        <v>2985.457501592246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>5191.237333748631</v>
+        <v>23.57687500188614</v>
       </c>
       <c r="B137" t="n">
-        <v>5191.237332502737</v>
+        <v>23.5768749962277</v>
       </c>
       <c r="C137" t="n">
-        <v>5191.237333748631</v>
+        <v>23.57687500188614</v>
       </c>
       <c r="D137" t="n">
-        <v>6674.448003559705</v>
+        <v>30.31312501616699</v>
       </c>
       <c r="E137" t="n">
-        <v>6674.447991100735</v>
+        <v>30.31312495958249</v>
       </c>
       <c r="F137" t="n">
-        <v>6674.448003559709</v>
+        <v>30.313125016167</v>
       </c>
       <c r="G137" t="n">
-        <v>6674.448003559702</v>
+        <v>30.313125016167</v>
       </c>
       <c r="H137" t="n">
-        <v>6674.448003559702</v>
+        <v>30.31312501616695</v>
       </c>
       <c r="I137" t="n">
-        <v>6674.447991100738</v>
+        <v>4.041749975749537</v>
       </c>
       <c r="J137" t="n">
-        <v>6674.448003559709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0</v>
+        <v>6368.7500005095</v>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>6368.749998981001</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>6368.7500005095</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>8188.392861509999</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>8188.392846224998</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>8188.392861510002</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>8188.392861510002</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>8188.392861509989</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1091.78570773501</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
@@ -4872,223 +4872,223 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>427.87500003423</v>
+        <v>2951.375000236109</v>
       </c>
       <c r="B139" t="n">
-        <v>427.8749999315401</v>
+        <v>2951.37499952778</v>
       </c>
       <c r="C139" t="n">
-        <v>427.8750000342299</v>
+        <v>2951.375000236109</v>
       </c>
       <c r="D139" t="n">
-        <v>550.1250002934</v>
+        <v>3794.625002023799</v>
       </c>
       <c r="E139" t="n">
-        <v>550.1249992664999</v>
+        <v>3794.624994940499</v>
       </c>
       <c r="F139" t="n">
-        <v>550.1250002934003</v>
+        <v>3794.625002023801</v>
       </c>
       <c r="G139" t="n">
-        <v>550.1250002933997</v>
+        <v>3794.625002023801</v>
       </c>
       <c r="H139" t="n">
-        <v>550.1250002933997</v>
+        <v>3794.625002023794</v>
       </c>
       <c r="I139" t="n">
-        <v>550.1249992665001</v>
+        <v>505.9499969643047</v>
       </c>
       <c r="J139" t="n">
-        <v>550.1250002934003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0</v>
+        <v>3470.29666694429</v>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>3470.29666611142</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>3470.296666944289</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>4461.810002379631</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>4461.809994050919</v>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>4461.810002379634</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>4461.81000237963</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>4461.81000237963</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>4461.809994050921</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
+        <v>4461.810002379634</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0</v>
+        <v>480.9058333718058</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>480.9058332563885</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>480.9058333718057</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>618.307500329764</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>618.3074991755899</v>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>618.3075003297643</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>618.3075003297637</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>618.3075003297637</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>618.3074991755902</v>
       </c>
       <c r="J141" t="n">
-        <v>0</v>
+        <v>618.3075003297643</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>330.9390000264751</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>330.9389999470498</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>330.939000026475</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>425.4930002269296</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>425.4929994326759</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>425.4930002269298</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>425.4930002269293</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>425.4930002269293</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>425.4929994326761</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
+        <v>425.4930002269298</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1058.7500000847</v>
+        <v>552.41666671086</v>
       </c>
       <c r="B143" t="n">
-        <v>1058.7499998306</v>
+        <v>552.4166665782801</v>
       </c>
       <c r="C143" t="n">
-        <v>1058.7500000847</v>
+        <v>552.4166667108599</v>
       </c>
       <c r="D143" t="n">
-        <v>1361.250000726</v>
+        <v>710.2500003788</v>
       </c>
       <c r="E143" t="n">
-        <v>1361.249998185</v>
+        <v>710.2499990529999</v>
       </c>
       <c r="F143" t="n">
-        <v>1361.250000726</v>
+        <v>710.2500003788003</v>
       </c>
       <c r="G143" t="n">
-        <v>1361.250000726</v>
+        <v>710.2500003787997</v>
       </c>
       <c r="H143" t="n">
-        <v>1361.250000725998</v>
+        <v>710.2500003787997</v>
       </c>
       <c r="I143" t="n">
-        <v>181.4999989110017</v>
+        <v>710.2499990530002</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
+        <v>710.2500003788003</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0</v>
+        <v>12622.48020934313</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>12622.48020631374</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>12622.48020934313</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>16228.90313365541</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>16228.90310336146</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>16228.90313365542</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>16228.9031336554</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>16228.9031336554</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>16228.90310336147</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>16228.90313365542</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>331.04166669315</v>
+        <v>2494.785416866249</v>
       </c>
       <c r="B145" t="n">
-        <v>331.0416666137</v>
+        <v>2494.785416267501</v>
       </c>
       <c r="C145" t="n">
-        <v>331.04166669315</v>
+        <v>2494.785416866249</v>
       </c>
       <c r="D145" t="n">
-        <v>425.6250002269999</v>
+        <v>3207.581251710709</v>
       </c>
       <c r="E145" t="n">
-        <v>425.6249994324999</v>
+        <v>3207.581245723223</v>
       </c>
       <c r="F145" t="n">
-        <v>425.6250002270001</v>
+        <v>3207.58125171071</v>
       </c>
       <c r="G145" t="n">
-        <v>425.6250002270001</v>
+        <v>3207.58125171071</v>
       </c>
       <c r="H145" t="n">
-        <v>425.6250002269994</v>
+        <v>3207.581251710705</v>
       </c>
       <c r="I145" t="n">
-        <v>56.74999965950052</v>
+        <v>427.6774974339389</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
@@ -5096,31 +5096,31 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0</v>
+        <v>88.3025000070642</v>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>88.30249998587162</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>88.3025000070642</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>113.531785774836</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>113.53178556291</v>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>113.531785774836</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>113.531785774836</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>113.5317857748359</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>15.13757133774614</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
@@ -5128,31 +5128,31 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0</v>
+        <v>11577.32187592619</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>11577.32187314763</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>11577.32187592619</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>14885.12813293873</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>14885.12810515316</v>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>14885.12813293874</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>14885.12813293874</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>14885.12813293871</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1984.683738091916</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
@@ -5160,63 +5160,63 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>403.8854166989775</v>
+        <v>7402.663333925545</v>
       </c>
       <c r="B148" t="n">
-        <v>403.8854166020451</v>
+        <v>7402.663332148909</v>
       </c>
       <c r="C148" t="n">
-        <v>403.8854166989775</v>
+        <v>7402.663333925544</v>
       </c>
       <c r="D148" t="n">
-        <v>519.28125027695</v>
+        <v>9517.710005076111</v>
       </c>
       <c r="E148" t="n">
-        <v>519.2812493076249</v>
+        <v>9517.709987309718</v>
       </c>
       <c r="F148" t="n">
-        <v>519.2812502769501</v>
+        <v>9517.710005076116</v>
       </c>
       <c r="G148" t="n">
-        <v>519.2812502769501</v>
+        <v>9517.710005076106</v>
       </c>
       <c r="H148" t="n">
-        <v>519.2812502769493</v>
+        <v>9517.710005076106</v>
       </c>
       <c r="I148" t="n">
-        <v>69.23749958457564</v>
+        <v>9517.709987309723</v>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
+        <v>9517.710005076116</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>70.6562500056525</v>
+        <v>1612.62500012901</v>
       </c>
       <c r="B149" t="n">
-        <v>70.65624998869501</v>
+        <v>1612.62499974198</v>
       </c>
       <c r="C149" t="n">
-        <v>70.6562500056525</v>
+        <v>1612.62500012901</v>
       </c>
       <c r="D149" t="n">
-        <v>90.84375004844998</v>
+        <v>2073.3750011058</v>
       </c>
       <c r="E149" t="n">
-        <v>90.84374987887497</v>
+        <v>2073.374997235499</v>
       </c>
       <c r="F149" t="n">
-        <v>90.84375004845002</v>
+        <v>2073.3750011058</v>
       </c>
       <c r="G149" t="n">
-        <v>90.84375004845002</v>
+        <v>2073.3750011058</v>
       </c>
       <c r="H149" t="n">
-        <v>90.84375004844986</v>
+        <v>2073.375001105797</v>
       </c>
       <c r="I149" t="n">
-        <v>12.11249992732511</v>
+        <v>276.4499983413025</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -5224,31 +5224,31 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>243.83333335284</v>
+        <v>2505.475000200438</v>
       </c>
       <c r="B150" t="n">
-        <v>243.8333332943201</v>
+        <v>2505.474999599125</v>
       </c>
       <c r="C150" t="n">
-        <v>243.83333335284</v>
+        <v>2505.475000200438</v>
       </c>
       <c r="D150" t="n">
-        <v>313.5000001672</v>
+        <v>3221.32500171804</v>
       </c>
       <c r="E150" t="n">
-        <v>313.4999995819999</v>
+        <v>3221.324995704899</v>
       </c>
       <c r="F150" t="n">
-        <v>313.5000001672001</v>
+        <v>3221.325001718041</v>
       </c>
       <c r="G150" t="n">
-        <v>313.5000001672001</v>
+        <v>3221.325001718041</v>
       </c>
       <c r="H150" t="n">
-        <v>313.5000001671996</v>
+        <v>3221.325001718036</v>
       </c>
       <c r="I150" t="n">
-        <v>41.79999974920039</v>
+        <v>429.509997422944</v>
       </c>
       <c r="J150" t="n">
         <v>0</v>
@@ -5256,31 +5256,31 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>585.0104167134676</v>
+        <v>77.14583333950499</v>
       </c>
       <c r="B151" t="n">
-        <v>585.0104165730652</v>
+        <v>77.14583332099001</v>
       </c>
       <c r="C151" t="n">
-        <v>585.0104167134676</v>
+        <v>77.14583333950499</v>
       </c>
       <c r="D151" t="n">
-        <v>752.15625040115</v>
+        <v>99.18750005289998</v>
       </c>
       <c r="E151" t="n">
-        <v>752.156248997125</v>
+        <v>99.18749986774996</v>
       </c>
       <c r="F151" t="n">
-        <v>752.1562504011504</v>
+        <v>99.18750005290002</v>
       </c>
       <c r="G151" t="n">
-        <v>752.1562504011504</v>
+        <v>99.18750005290002</v>
       </c>
       <c r="H151" t="n">
-        <v>752.1562504011491</v>
+        <v>99.18750005289985</v>
       </c>
       <c r="I151" t="n">
-        <v>100.287499398276</v>
+        <v>13.22499992065012</v>
       </c>
       <c r="J151" t="n">
         <v>0</v>
@@ -5288,31 +5288,31 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>266.437500021315</v>
+        <v>4317.557375345405</v>
       </c>
       <c r="B152" t="n">
-        <v>266.4374999573701</v>
+        <v>4317.557374309192</v>
       </c>
       <c r="C152" t="n">
-        <v>266.437500021315</v>
+        <v>4317.557375345405</v>
       </c>
       <c r="D152" t="n">
-        <v>342.5625001827</v>
+        <v>5551.145199389182</v>
       </c>
       <c r="E152" t="n">
-        <v>342.5624995432499</v>
+        <v>5551.145189027044</v>
       </c>
       <c r="F152" t="n">
-        <v>342.5625001827001</v>
+        <v>5551.145199389184</v>
       </c>
       <c r="G152" t="n">
-        <v>342.5625001827001</v>
+        <v>5551.145199389184</v>
       </c>
       <c r="H152" t="n">
-        <v>342.5625001826996</v>
+        <v>5551.145199389175</v>
       </c>
       <c r="I152" t="n">
-        <v>45.67499972595043</v>
+        <v>740.1526884162337</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
@@ -5320,31 +5320,31 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>17.4270833347275</v>
+        <v>0</v>
       </c>
       <c r="B153" t="n">
-        <v>17.427083330545</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>17.4270833347275</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>22.40625001194999</v>
+        <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>22.40624997012499</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>22.40625001195</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>22.40625001195</v>
+        <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>22.40625001194996</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>2.987499982075027</v>
+        <v>0</v>
       </c>
       <c r="J153" t="n">
         <v>0</v>
@@ -5352,95 +5352,95 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>10.7187500008575</v>
+        <v>893.7600000715007</v>
       </c>
       <c r="B154" t="n">
-        <v>10.718749998285</v>
+        <v>893.7599998569985</v>
       </c>
       <c r="C154" t="n">
-        <v>10.7187500008575</v>
+        <v>893.7600000715005</v>
       </c>
       <c r="D154" t="n">
-        <v>13.78125000735</v>
+        <v>1149.120000612864</v>
       </c>
       <c r="E154" t="n">
-        <v>13.781249981625</v>
+        <v>1149.11999846784</v>
       </c>
       <c r="F154" t="n">
-        <v>13.78125000735001</v>
+        <v>1149.120000612864</v>
       </c>
       <c r="G154" t="n">
-        <v>13.78125000735001</v>
+        <v>1149.120000612863</v>
       </c>
       <c r="H154" t="n">
-        <v>13.78125000734998</v>
+        <v>1149.120000612863</v>
       </c>
       <c r="I154" t="n">
-        <v>1.837499988975017</v>
+        <v>1149.11999846784</v>
       </c>
       <c r="J154" t="n">
-        <v>0</v>
+        <v>1149.120000612864</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>18.8854166681775</v>
+        <v>5191.237333748631</v>
       </c>
       <c r="B155" t="n">
-        <v>18.885416663645</v>
+        <v>5191.237332502737</v>
       </c>
       <c r="C155" t="n">
-        <v>18.8854166681775</v>
+        <v>5191.237333748631</v>
       </c>
       <c r="D155" t="n">
-        <v>24.28125001295</v>
+        <v>6674.448003559705</v>
       </c>
       <c r="E155" t="n">
-        <v>24.28124996762499</v>
+        <v>6674.447991100735</v>
       </c>
       <c r="F155" t="n">
-        <v>24.28125001295001</v>
+        <v>6674.448003559709</v>
       </c>
       <c r="G155" t="n">
-        <v>24.28125001295001</v>
+        <v>6674.448003559702</v>
       </c>
       <c r="H155" t="n">
-        <v>24.28125001294997</v>
+        <v>6674.448003559702</v>
       </c>
       <c r="I155" t="n">
-        <v>3.23749998057503</v>
+        <v>6674.447991100738</v>
       </c>
       <c r="J155" t="n">
-        <v>0</v>
+        <v>6674.448003559709</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0</v>
+        <v>413.1458333663849</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>413.14583326723</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>413.1458333663849</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>531.1875002832999</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>531.1874992917499</v>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>531.1875002833001</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>531.1875002833001</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>531.1875002832993</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>70.82499957505065</v>
       </c>
       <c r="J156" t="n">
         <v>0</v>
@@ -5448,31 +5448,31 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>123.0031250098402</v>
+        <v>4253.714221069463</v>
       </c>
       <c r="B157" t="n">
-        <v>123.0031249803195</v>
+        <v>4253.714220048572</v>
       </c>
       <c r="C157" t="n">
-        <v>123.0031250098402</v>
+        <v>4253.714221069463</v>
       </c>
       <c r="D157" t="n">
-        <v>158.146875084345</v>
+        <v>5469.061143854331</v>
       </c>
       <c r="E157" t="n">
-        <v>158.1468747891375</v>
+        <v>5469.061133645417</v>
       </c>
       <c r="F157" t="n">
-        <v>158.146875084345</v>
+        <v>5469.061143854334</v>
       </c>
       <c r="G157" t="n">
-        <v>158.146875084345</v>
+        <v>5469.061143854334</v>
       </c>
       <c r="H157" t="n">
-        <v>158.1468750843448</v>
+        <v>5469.061143854325</v>
       </c>
       <c r="I157" t="n">
-        <v>21.08624987348269</v>
+        <v>729.2081477497578</v>
       </c>
       <c r="J157" t="n">
         <v>0</v>
@@ -5480,31 +5480,31 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>83.19791667332247</v>
+        <v>3239.352083592481</v>
       </c>
       <c r="B158" t="n">
-        <v>83.19791665335499</v>
+        <v>3239.352082815037</v>
       </c>
       <c r="C158" t="n">
-        <v>83.19791667332247</v>
+        <v>3239.352083592481</v>
       </c>
       <c r="D158" t="n">
-        <v>106.96875005705</v>
+        <v>4164.881252221269</v>
       </c>
       <c r="E158" t="n">
-        <v>106.9687498573749</v>
+        <v>4164.881244446824</v>
       </c>
       <c r="F158" t="n">
-        <v>106.96875005705</v>
+        <v>4164.881252221271</v>
       </c>
       <c r="G158" t="n">
-        <v>106.96875005705</v>
+        <v>4164.881252221271</v>
       </c>
       <c r="H158" t="n">
-        <v>106.9687500570498</v>
+        <v>4164.881252221264</v>
       </c>
       <c r="I158" t="n">
-        <v>14.26249991442513</v>
+        <v>555.3174966681001</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
@@ -5512,31 +5512,31 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>5697.948958789169</v>
+        <v>55.05208333773749</v>
       </c>
       <c r="B159" t="n">
-        <v>5697.948957421662</v>
+        <v>55.05208332452501</v>
       </c>
       <c r="C159" t="n">
-        <v>5697.948958789169</v>
+        <v>55.05208333773749</v>
       </c>
       <c r="D159" t="n">
-        <v>7325.934378907164</v>
+        <v>70.78125003774998</v>
       </c>
       <c r="E159" t="n">
-        <v>7325.934365232085</v>
+        <v>70.78124990562497</v>
       </c>
       <c r="F159" t="n">
-        <v>7325.934378907166</v>
+        <v>70.78125003775001</v>
       </c>
       <c r="G159" t="n">
-        <v>7325.934378907166</v>
+        <v>70.78125003775001</v>
       </c>
       <c r="H159" t="n">
-        <v>7325.934378907154</v>
+        <v>70.7812500377499</v>
       </c>
       <c r="I159" t="n">
-        <v>976.7912441392615</v>
+        <v>9.437499943375087</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
@@ -5544,31 +5544,31 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2494.785416866249</v>
+        <v>0</v>
       </c>
       <c r="B160" t="n">
-        <v>2494.785416267501</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>2494.785416866249</v>
+        <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>3207.581251710709</v>
+        <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>3207.581245723223</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>3207.58125171071</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>3207.58125171071</v>
+        <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>3207.581251710705</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>427.6774974339389</v>
+        <v>0</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
@@ -5576,31 +5576,31 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>77.14583333950497</v>
+        <v>0</v>
       </c>
       <c r="B161" t="n">
-        <v>77.14583332098999</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>77.14583333950497</v>
+        <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>99.18750005289996</v>
+        <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>99.18749986774995</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>99.18750005290001</v>
+        <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>99.18750005290001</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>99.18750005289984</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>13.22499992065012</v>
+        <v>0</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
@@ -5608,31 +5608,31 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>413.1458333663849</v>
+        <v>0</v>
       </c>
       <c r="B162" t="n">
-        <v>413.1458332672299</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>413.1458333663849</v>
+        <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>531.1875002832998</v>
+        <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>531.1874992917496</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>531.1875002833</v>
+        <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>531.1875002833</v>
+        <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>531.1875002832991</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>70.82499957505064</v>
+        <v>0</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
@@ -5640,33 +5640,449 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0</v>
+        <v>72.9166666725</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>72.91666665500001</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>72.9166666725</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>93.75000004999998</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>93.74999987499997</v>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>93.75000005000003</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>93.75000005000003</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>93.75000004999987</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>12.49999992500012</v>
       </c>
       <c r="J163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>2608.106666875315</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2608.10666624937</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2608.106666875315</v>
+      </c>
+      <c r="D164" t="n">
+        <v>3353.280001788416</v>
+      </c>
+      <c r="E164" t="n">
+        <v>3353.279995528959</v>
+      </c>
+      <c r="F164" t="n">
+        <v>3353.280001788417</v>
+      </c>
+      <c r="G164" t="n">
+        <v>3353.280001788414</v>
+      </c>
+      <c r="H164" t="n">
+        <v>3353.280001788414</v>
+      </c>
+      <c r="I164" t="n">
+        <v>3353.279995528961</v>
+      </c>
+      <c r="J164" t="n">
+        <v>3353.280001788417</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>2322.022500185762</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2322.022499628477</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2322.022500185761</v>
+      </c>
+      <c r="D165" t="n">
+        <v>2985.457501592244</v>
+      </c>
+      <c r="E165" t="n">
+        <v>2985.457496019389</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2985.457501592245</v>
+      </c>
+      <c r="G165" t="n">
+        <v>2985.457501592242</v>
+      </c>
+      <c r="H165" t="n">
+        <v>2985.457501592242</v>
+      </c>
+      <c r="I165" t="n">
+        <v>2985.457496019391</v>
+      </c>
+      <c r="J165" t="n">
+        <v>2985.457501592245</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1710.121875136809</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1710.121874726381</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1710.121875136809</v>
+      </c>
+      <c r="D167" t="n">
+        <v>2198.728126172654</v>
+      </c>
+      <c r="E167" t="n">
+        <v>2198.728122068362</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2198.728126172655</v>
+      </c>
+      <c r="G167" t="n">
+        <v>2198.728126172655</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2198.728126172652</v>
+      </c>
+      <c r="I167" t="n">
+        <v>293.1637482410202</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>629.687500050375</v>
+      </c>
+      <c r="B168" t="n">
+        <v>629.6874998992502</v>
+      </c>
+      <c r="C168" t="n">
+        <v>629.687500050375</v>
+      </c>
+      <c r="D168" t="n">
+        <v>809.5982147174999</v>
+      </c>
+      <c r="E168" t="n">
+        <v>809.5982132062497</v>
+      </c>
+      <c r="F168" t="n">
+        <v>809.5982147175002</v>
+      </c>
+      <c r="G168" t="n">
+        <v>809.5982147175002</v>
+      </c>
+      <c r="H168" t="n">
+        <v>809.5982147174989</v>
+      </c>
+      <c r="I168" t="n">
+        <v>107.946427923751</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>7054.487500564359</v>
+      </c>
+      <c r="B170" t="n">
+        <v>7054.487498871284</v>
+      </c>
+      <c r="C170" t="n">
+        <v>7054.487500564359</v>
+      </c>
+      <c r="D170" t="n">
+        <v>9070.055361980219</v>
+      </c>
+      <c r="E170" t="n">
+        <v>9070.055345049448</v>
+      </c>
+      <c r="F170" t="n">
+        <v>9070.055361980223</v>
+      </c>
+      <c r="G170" t="n">
+        <v>9070.055361980223</v>
+      </c>
+      <c r="H170" t="n">
+        <v>9070.055361980209</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1209.340707029681</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>933.5062500746805</v>
+      </c>
+      <c r="B171" t="n">
+        <v>933.5062498506392</v>
+      </c>
+      <c r="C171" t="n">
+        <v>933.5062500746805</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1200.22232206869</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1200.222319828275</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1200.22232206869</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1200.22232206869</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1200.222322068688</v>
+      </c>
+      <c r="I171" t="n">
+        <v>160.0296418969665</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>427.87500003423</v>
+      </c>
+      <c r="B172" t="n">
+        <v>427.8749999315401</v>
+      </c>
+      <c r="C172" t="n">
+        <v>427.8750000342299</v>
+      </c>
+      <c r="D172" t="n">
+        <v>550.1250002934</v>
+      </c>
+      <c r="E172" t="n">
+        <v>550.1249992664999</v>
+      </c>
+      <c r="F172" t="n">
+        <v>550.1250002934003</v>
+      </c>
+      <c r="G172" t="n">
+        <v>550.1250002933997</v>
+      </c>
+      <c r="H172" t="n">
+        <v>550.1250002933997</v>
+      </c>
+      <c r="I172" t="n">
+        <v>550.1249992665001</v>
+      </c>
+      <c r="J172" t="n">
+        <v>550.1250002934003</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>5029.791667069049</v>
+      </c>
+      <c r="B173" t="n">
+        <v>5029.791665861901</v>
+      </c>
+      <c r="C173" t="n">
+        <v>5029.791667069049</v>
+      </c>
+      <c r="D173" t="n">
+        <v>6466.875003448999</v>
+      </c>
+      <c r="E173" t="n">
+        <v>6466.874991377498</v>
+      </c>
+      <c r="F173" t="n">
+        <v>6466.875003449002</v>
+      </c>
+      <c r="G173" t="n">
+        <v>6466.875003449002</v>
+      </c>
+      <c r="H173" t="n">
+        <v>6466.875003448991</v>
+      </c>
+      <c r="I173" t="n">
+        <v>862.249994826508</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>5329.322225426346</v>
+      </c>
+      <c r="B175" t="n">
+        <v>5329.322224147309</v>
+      </c>
+      <c r="C175" t="n">
+        <v>5329.322225426346</v>
+      </c>
+      <c r="D175" t="n">
+        <v>6851.985721511534</v>
+      </c>
+      <c r="E175" t="n">
+        <v>6851.98570872116</v>
+      </c>
+      <c r="F175" t="n">
+        <v>6851.985721511537</v>
+      </c>
+      <c r="G175" t="n">
+        <v>6851.985721511537</v>
+      </c>
+      <c r="H175" t="n">
+        <v>6851.985721511526</v>
+      </c>
+      <c r="I175" t="n">
+        <v>913.5980902327057</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
         <v>0</v>
       </c>
     </row>
